--- a/요구사항 정의서_프로젝트2.xlsx
+++ b/요구사항 정의서_프로젝트2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TripMate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
   <si>
     <t>HT</t>
   </si>
@@ -177,10 +182,6 @@
   <si>
     <t>가이드 로그인 시 접근 가능
 사진, 설명, 가이드 경로 등을 입력하여 본인의 가이드 여행 상품 등록</t>
-  </si>
-  <si>
-    <t>내용 타이틀 세로
-가운데 정렬 X</t>
   </si>
   <si>
     <t>KB – P - 007</t>
@@ -507,6 +508,14 @@
   </si>
   <si>
     <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현 완료 모바일 앱 화면 구현 중</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구현 중</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -961,6 +970,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,12 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1252,17 +1261,17 @@
     <row r="2" spans="1:29" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1285,15 +1294,15 @@
     <row r="3" spans="1:29" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1403,25 +1412,25 @@
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" s="14">
         <v>43850</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J6" s="15">
         <v>1</v>
@@ -1463,16 +1472,16 @@
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="22">
         <v>43852</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>137</v>
       </c>
       <c r="J7" s="23">
         <v>2</v>
@@ -1514,16 +1523,16 @@
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="22">
         <v>43850</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="43" t="s">
         <v>136</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>137</v>
       </c>
       <c r="J8" s="23">
         <v>1</v>
@@ -1565,16 +1574,16 @@
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="22">
         <v>43852</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J9" s="23">
         <v>2</v>
@@ -1618,7 +1627,7 @@
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" s="22">
         <v>43850</v>
@@ -1627,16 +1636,16 @@
         <v>32</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="J10" s="23">
         <v>1</v>
       </c>
       <c r="K10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1660,14 +1669,14 @@
       <c r="A11" s="17"/>
       <c r="B11" s="26"/>
       <c r="C11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="22">
         <v>43850</v>
@@ -1675,15 +1684,17 @@
       <c r="H11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="J11" s="23">
         <v>1</v>
       </c>
       <c r="K11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1706,35 +1717,35 @@
     <row r="12" spans="1:29" ht="24">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="22">
         <v>43852</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="J12" s="23">
         <v>2</v>
       </c>
       <c r="K12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1758,32 +1769,32 @@
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="22">
         <v>43850</v>
       </c>
       <c r="H13" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="J13" s="23">
         <v>1</v>
       </c>
       <c r="K13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1807,32 +1818,32 @@
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="22">
         <v>43852</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J14" s="23">
         <v>2</v>
       </c>
       <c r="K14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1856,14 +1867,14 @@
       <c r="A15" s="17"/>
       <c r="B15" s="26"/>
       <c r="C15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="22">
         <v>43852</v>
@@ -1898,35 +1909,35 @@
     <row r="16" spans="1:29" ht="18.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>74</v>
-      </c>
       <c r="F16" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="22">
         <v>43850</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="23">
         <v>2</v>
       </c>
       <c r="K16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1950,30 +1961,32 @@
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>78</v>
-      </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="55" t="s">
-        <v>142</v>
+      <c r="F17" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="G17" s="29">
         <v>43852</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="30"/>
+        <v>144</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="J17" s="23">
         <v>1</v>
       </c>
       <c r="K17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1997,10 +2010,10 @@
       <c r="A18" s="17"/>
       <c r="B18" s="26"/>
       <c r="C18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
@@ -2035,17 +2048,17 @@
     <row r="19" spans="1:29" ht="84">
       <c r="A19" s="17"/>
       <c r="B19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="54" t="s">
-        <v>140</v>
+      <c r="F19" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="G19" s="33">
         <v>43850</v>
@@ -2054,16 +2067,16 @@
         <v>26</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="23">
         <v>1</v>
       </c>
       <c r="K19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2087,14 +2100,14 @@
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="54" t="s">
-        <v>140</v>
+      <c r="F20" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="G20" s="33">
         <v>43852</v>
@@ -2107,10 +2120,10 @@
         <v>2</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2132,16 +2145,16 @@
     </row>
     <row r="21" spans="1:29" ht="24">
       <c r="A21" s="17"/>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="35" t="s">
-        <v>93</v>
-      </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="54" t="s">
-        <v>140</v>
+      <c r="F21" s="45" t="s">
+        <v>139</v>
       </c>
       <c r="G21" s="33">
         <v>43852</v>
@@ -2154,10 +2167,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2181,32 +2194,32 @@
       <c r="A22" s="17"/>
       <c r="B22" s="36"/>
       <c r="C22" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="22">
         <v>43850</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="23">
         <v>2</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2229,17 +2242,17 @@
     <row r="23" spans="1:29" ht="18.75" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="22">
         <v>43850</v>
@@ -2252,10 +2265,10 @@
         <v>2</v>
       </c>
       <c r="K23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2279,14 +2292,14 @@
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" s="22">
         <v>43850</v>
@@ -2299,10 +2312,10 @@
         <v>2</v>
       </c>
       <c r="K24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2324,35 +2337,35 @@
     </row>
     <row r="25" spans="1:29" ht="18.75" customHeight="1">
       <c r="A25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="C25" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="22">
         <v>43852</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J25" s="23">
         <v>3</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="1"/>
@@ -2376,17 +2389,17 @@
     <row r="26" spans="1:29" ht="18.75" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G26" s="22">
         <v>43852</v>
@@ -2399,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L26" s="23"/>
       <c r="M26" s="1"/>
@@ -2423,17 +2436,17 @@
     <row r="27" spans="1:29" ht="45" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>120</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="22">
         <v>43852</v>
@@ -2446,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="1"/>
@@ -2470,17 +2483,17 @@
     <row r="28" spans="1:29" ht="33.75" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="40" t="s">
         <v>123</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>124</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="22">
         <v>43852</v>
@@ -2493,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="1"/>
@@ -2517,17 +2530,17 @@
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G29" s="22">
         <v>43852</v>
@@ -2540,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="1"/>
@@ -2564,17 +2577,17 @@
     <row r="30" spans="1:29" ht="18.75" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="22">
         <v>43852</v>
@@ -2728,7 +2741,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="F35" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="3" t="s">
@@ -2760,7 +2773,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="F36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="3" t="s">
@@ -2792,7 +2805,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="F37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="3" t="s">
@@ -2825,7 +2838,7 @@
       <c r="B38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="3" t="s">

--- a/요구사항 정의서_프로젝트2.xlsx
+++ b/요구사항 정의서_프로젝트2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$5:$L$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$33</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
   <si>
     <t>HT</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>버튼 클릭시 각 페이지로 이동</t>
-  </si>
-  <si>
-    <t>화면 설계 완료</t>
   </si>
   <si>
     <t>HJ - P - 001
@@ -126,9 +123,6 @@
     <t>웹에 등록된 ID, PW 입력을 통한 일반 로그인, 구글, 페이스북, 네이버 소셜 회원 가입</t>
   </si>
   <si>
-    <t>화면 구현 중</t>
-  </si>
-  <si>
     <t>HT – P - 004</t>
   </si>
   <si>
@@ -177,10 +171,6 @@
   <si>
     <t>가이드 로그인 시 접근 가능
 사진, 설명, 가이드 경로 등을 입력하여 본인의 가이드 여행 상품 등록</t>
-  </si>
-  <si>
-    <t>내용 타이틀 세로
-가운데 정렬 X</t>
   </si>
   <si>
     <t>KB – P - 007</t>
@@ -306,10 +296,6 @@
 * 여행이 끝난 후 서로에게 평점 부여</t>
   </si>
   <si>
-    <t>메뉴바 동시에
-내려오게 수정예정</t>
-  </si>
-  <si>
     <t>YS – P – 014
 YS – P – 015</t>
   </si>
@@ -349,9 +335,6 @@
   </si>
   <si>
     <t>관리자가 등록한 공지사항 보기</t>
-  </si>
-  <si>
-    <t>화면 구현 완료</t>
   </si>
   <si>
     <t>SH – P – 012</t>
@@ -462,34 +445,10 @@
     <t>회원 삭제, 개인정보, 게시글, 평점 관리</t>
   </si>
   <si>
-    <t>화면 구현 중</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>고객센터 카테고리로 이동.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>화면 구현 중</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터 환경이 바뀌면 화면 비율이 틀어지는 현상</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 구현 완료</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크 작업중</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크 작업중</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>현태</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -507,6 +466,155 @@
   </si>
   <si>
     <t>형준</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 위치 날씨 메인 화면에 구현</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크 작업 완료 요망</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크 작업 완료 요망
+가이드 회원, 일반 회원 마이페이지 추가</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡 로그인 버튼 추가</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드 회원 상품 관리 - 리스트 페이지 추가</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 정보 - 리스트 페이지 추가</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타일 조정
+메뉴 하단 여행 메이트 리스트 구현</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 하단에 구현 요망
+스타일 조정
+별점 및 리뷰 파트 추가 -&gt; 여행 정보 화면 참고</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현 완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현 완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면 구현 중</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앱</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 - layout 설계 완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 - 구현 완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타일 작업 완료</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +625,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -585,8 +693,31 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,8 +736,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -655,17 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -678,62 +804,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -829,11 +904,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -853,10 +1112,125 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,121 +1239,80 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1000"/>
+  <dimension ref="A1:AG1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1209,16 +1542,17 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
     <col min="4" max="4" width="87.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
+    <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
@@ -1226,10 +1560,10 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1248,25 +1582,29 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1">
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1281,23 +1619,27 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" ht="19.5" customHeight="1">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1312,8 +1654,12 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" ht="19.5" customHeight="1">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -1321,10 +1667,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1343,44 +1689,28 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" ht="27.75" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" ht="50.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="60">
+        <v>43860</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1398,40 +1728,24 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" ht="36">
-      <c r="A6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="14">
-        <v>43850</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" ht="19.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1449,46 +1763,52 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" ht="24">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="23">
-        <v>2</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>22</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1502,44 +1822,38 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" ht="24">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="22">
-        <v>43850</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="23">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="56">
+        <v>43854</v>
+      </c>
+      <c r="H8" s="56">
+        <v>43858</v>
+      </c>
+      <c r="I8" s="56">
+        <v>43859</v>
+      </c>
+      <c r="J8" s="56">
+        <v>43860</v>
+      </c>
+      <c r="K8" s="56">
+        <v>43861</v>
+      </c>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1553,44 +1867,50 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="23">
-        <v>2</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>43</v>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" ht="36">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="57" t="s">
+        <v>146</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="15">
+        <v>1</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1604,46 +1924,56 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" ht="24">
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" ht="24">
       <c r="A10" s="17"/>
-      <c r="B10" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>47</v>
+      <c r="B10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="22">
-        <v>43850</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="M10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N10" s="22">
+        <v>2</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="23">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1655,42 +1985,52 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="24">
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" ht="24">
       <c r="A11" s="17"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="12" t="s">
-        <v>52</v>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="22">
-        <v>43850</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="23">
+      <c r="M11" s="39"/>
+      <c r="N11" s="22">
         <v>1</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1702,46 +2042,52 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="24">
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" ht="18.75" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="19" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="23">
+        <v>128</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="22">
         <v>2</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="O12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1753,42 +2099,48 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="24">
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" ht="24">
       <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19" t="s">
-        <v>61</v>
+      <c r="B13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="22">
-        <v>43850</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="23">
+      <c r="N13" s="22">
         <v>1</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="O13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1802,42 +2154,44 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="24">
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" ht="24">
       <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19" t="s">
-        <v>65</v>
+      <c r="B14" s="25"/>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="23">
-        <v>2</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>67</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="22">
+        <v>1</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1851,36 +2205,52 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" customHeight="1">
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="1:33" ht="24">
       <c r="A15" s="17"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>70</v>
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="23">
+        <v>128</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="68"/>
+      <c r="J15" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="58"/>
+      <c r="L15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="22">
         <v>2</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="O15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1894,44 +2264,48 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" customHeight="1">
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="1:33" ht="24">
       <c r="A16" s="17"/>
-      <c r="B16" s="27" t="s">
-        <v>71</v>
-      </c>
+      <c r="B16" s="17"/>
       <c r="C16" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>74</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="21"/>
       <c r="F16" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="22">
-        <v>43850</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="23">
-        <v>2</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="68"/>
+      <c r="J16" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="58"/>
       <c r="L16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="22">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1945,40 +2319,48 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" ht="96">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="1:33" ht="24">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="55" t="s">
+      <c r="C17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="68"/>
+      <c r="J17" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="58"/>
+      <c r="L17" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="29">
-        <v>43852</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="23">
-        <v>1</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="22">
+        <v>2</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1992,32 +2374,40 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" ht="18.75" customHeight="1">
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" ht="18.75" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="23">
-        <v>3</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="22">
+        <v>2</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2031,44 +2421,46 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" ht="84">
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="1:33" ht="18.75" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="33">
-        <v>43850</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="23">
-        <v>1</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="B19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="22">
+        <v>2</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2082,40 +2474,46 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" ht="18.75" customHeight="1">
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="1:33" ht="96">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="33">
-        <v>43852</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="23">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="C20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="58"/>
       <c r="L20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="22">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2129,40 +2527,38 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" ht="24">
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="1:33" ht="18.75" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="33">
-        <v>43852</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="23">
-        <v>1</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="22">
+        <v>3</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2176,42 +2572,48 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="1:29" ht="18.75" customHeight="1">
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" ht="84">
       <c r="A22" s="17"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
+      <c r="B22" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="22">
-        <v>43850</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" s="23">
-        <v>2</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>99</v>
-      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N22" s="22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2225,42 +2627,44 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" ht="18.75" customHeight="1">
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" ht="18.75" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>101</v>
+      <c r="B23" s="17"/>
+      <c r="C23" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="22">
-        <v>43850</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="23">
+        <v>85</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="22">
         <v>2</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="O23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2274,40 +2678,46 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21" t="s">
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" ht="36">
+      <c r="A24" s="17"/>
+      <c r="B24" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="22">
-        <v>43850</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="23">
-        <v>2</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>107</v>
-      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" s="22">
+        <v>1</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2321,44 +2731,46 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>111</v>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" ht="18.75" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="23">
-        <v>3</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="22">
+        <v>2</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2372,40 +2784,46 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" ht="18.75" customHeight="1">
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="1:33" ht="18.75" customHeight="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>115</v>
+      <c r="B26" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="23">
-        <v>3</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="22">
+        <v>2</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2419,40 +2837,44 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" ht="45" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="23" t="s">
-        <v>118</v>
-      </c>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" ht="18.75" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="23">
-        <v>3</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="22">
+        <v>2</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2466,40 +2888,54 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" ht="33.75" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="21" t="s">
-        <v>122</v>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" ht="18.75" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>124</v>
+        <v>106</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="58"/>
+      <c r="L28" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="23">
+      <c r="M28" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N28" s="22">
         <v>3</v>
       </c>
-      <c r="K28" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="O28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="15"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2513,40 +2949,44 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" ht="18.75" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="23" t="s">
-        <v>126</v>
+      <c r="B29" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>128</v>
+        <v>110</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="23">
+        <v>130</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="22">
         <v>3</v>
       </c>
-      <c r="K29" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="O29" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="22"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2560,38 +3000,44 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="23" t="s">
-        <v>130</v>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" ht="45" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="22">
-        <v>43852</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="23">
+        <v>130</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="22">
         <v>3</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="O30" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" s="12"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -2605,24 +3051,44 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="1:33" ht="33.75" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="22">
+        <v>3</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="P31" s="12"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2636,24 +3102,44 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M32" s="12"/>
+      <c r="N32" s="22">
+        <v>3</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="12"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2667,21 +3153,42 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-    </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="1:33" ht="18.75" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="22">
+        <v>3</v>
+      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2695,21 +3202,28 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-    </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="1:33" ht="19.5" customHeight="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2723,25 +3237,28 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="F35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2755,25 +3272,21 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-    </row>
-    <row r="36" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="F36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+    </row>
+    <row r="36" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2787,25 +3300,21 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-    </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="F37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+    </row>
+    <row r="37" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -2819,23 +3328,26 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-    </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+    </row>
+    <row r="38" spans="1:33" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
-      <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="3"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="L38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2852,23 +3364,26 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-    </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+    </row>
+    <row r="39" spans="1:33" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
-      <c r="E39" s="3"/>
       <c r="F39" s="1" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="3"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="L39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="3"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2885,21 +3400,26 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-    </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+    </row>
+    <row r="40" spans="1:33" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="L40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="3"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2916,21 +3436,27 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-    </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+    </row>
+    <row r="41" spans="1:33" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="F41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2947,21 +3473,27 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-    </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+    </row>
+    <row r="42" spans="1:33" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="F42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="3"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2978,8 +3510,12 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+    </row>
+    <row r="43" spans="1:33" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
@@ -2987,10 +3523,10 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3009,8 +3545,12 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-    </row>
-    <row r="44" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+    </row>
+    <row r="44" spans="1:33" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="1"/>
@@ -3018,10 +3558,10 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3040,8 +3580,12 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-    </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+    </row>
+    <row r="45" spans="1:33" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
@@ -3049,10 +3593,10 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3071,8 +3615,12 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-    </row>
-    <row r="46" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+    </row>
+    <row r="46" spans="1:33" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
@@ -3080,10 +3628,10 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3102,8 +3650,12 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-    </row>
-    <row r="47" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+    </row>
+    <row r="47" spans="1:33" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
@@ -3111,10 +3663,10 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3133,8 +3685,12 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-    </row>
-    <row r="48" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+    </row>
+    <row r="48" spans="1:33" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
@@ -3142,10 +3698,10 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3164,8 +3720,12 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-    </row>
-    <row r="49" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+    </row>
+    <row r="49" spans="1:33" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
@@ -3173,10 +3733,10 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3195,8 +3755,12 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-    </row>
-    <row r="50" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+    </row>
+    <row r="50" spans="1:33" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
@@ -3204,10 +3768,10 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3226,8 +3790,12 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-    </row>
-    <row r="51" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+    </row>
+    <row r="51" spans="1:33" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="1"/>
@@ -3235,10 +3803,10 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -3257,8 +3825,12 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-    </row>
-    <row r="52" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+    </row>
+    <row r="52" spans="1:33" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
       <c r="C52" s="1"/>
@@ -3266,10 +3838,10 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3288,8 +3860,12 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-    </row>
-    <row r="53" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+    </row>
+    <row r="53" spans="1:33" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
       <c r="C53" s="1"/>
@@ -3297,10 +3873,10 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3319,8 +3895,12 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-    </row>
-    <row r="54" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+    </row>
+    <row r="54" spans="1:33" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
@@ -3328,10 +3908,10 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3350,8 +3930,12 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-    </row>
-    <row r="55" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+    </row>
+    <row r="55" spans="1:33" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
@@ -3359,10 +3943,10 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3381,8 +3965,12 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-    </row>
-    <row r="56" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+    </row>
+    <row r="56" spans="1:33" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
@@ -3390,10 +3978,10 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3412,8 +4000,12 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-    </row>
-    <row r="57" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+    </row>
+    <row r="57" spans="1:33" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="3"/>
       <c r="C57" s="1"/>
@@ -3421,10 +4013,10 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -3443,8 +4035,12 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-    </row>
-    <row r="58" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+    </row>
+    <row r="58" spans="1:33" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="3"/>
       <c r="C58" s="1"/>
@@ -3452,10 +4048,10 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3474,8 +4070,12 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-    </row>
-    <row r="59" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+    </row>
+    <row r="59" spans="1:33" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="3"/>
       <c r="C59" s="1"/>
@@ -3483,10 +4083,10 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -3505,8 +4105,12 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-    </row>
-    <row r="60" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+    </row>
+    <row r="60" spans="1:33" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
       <c r="C60" s="1"/>
@@ -3514,10 +4118,10 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -3536,8 +4140,12 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-    </row>
-    <row r="61" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+    </row>
+    <row r="61" spans="1:33" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="1"/>
@@ -3545,10 +4153,10 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -3567,8 +4175,12 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-    </row>
-    <row r="62" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+    </row>
+    <row r="62" spans="1:33" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
       <c r="C62" s="1"/>
@@ -3576,10 +4188,10 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -3598,8 +4210,12 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-    </row>
-    <row r="63" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+    </row>
+    <row r="63" spans="1:33" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
@@ -3607,10 +4223,10 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -3629,8 +4245,12 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-    </row>
-    <row r="64" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+    </row>
+    <row r="64" spans="1:33" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="1"/>
@@ -3638,10 +4258,10 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -3660,8 +4280,12 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-    </row>
-    <row r="65" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+    </row>
+    <row r="65" spans="1:33" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
@@ -3669,10 +4293,10 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -3691,8 +4315,12 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-    </row>
-    <row r="66" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+    </row>
+    <row r="66" spans="1:33" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
@@ -3700,10 +4328,10 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -3722,8 +4350,12 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-    </row>
-    <row r="67" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+    </row>
+    <row r="67" spans="1:33" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
@@ -3731,10 +4363,10 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -3753,8 +4385,12 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-    </row>
-    <row r="68" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+    </row>
+    <row r="68" spans="1:33" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="3"/>
       <c r="C68" s="1"/>
@@ -3762,10 +4398,10 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -3784,8 +4420,12 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-    </row>
-    <row r="69" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+    </row>
+    <row r="69" spans="1:33" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
       <c r="C69" s="1"/>
@@ -3793,10 +4433,10 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -3815,8 +4455,12 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-    </row>
-    <row r="70" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+    </row>
+    <row r="70" spans="1:33" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
       <c r="C70" s="1"/>
@@ -3824,10 +4468,10 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -3846,8 +4490,12 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-    </row>
-    <row r="71" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+    </row>
+    <row r="71" spans="1:33" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
       <c r="C71" s="1"/>
@@ -3855,10 +4503,10 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -3877,8 +4525,12 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-    </row>
-    <row r="72" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+    </row>
+    <row r="72" spans="1:33" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
       <c r="C72" s="1"/>
@@ -3886,10 +4538,10 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -3908,8 +4560,12 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-    </row>
-    <row r="73" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+    </row>
+    <row r="73" spans="1:33" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="C73" s="1"/>
@@ -3917,10 +4573,10 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -3939,8 +4595,12 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-    </row>
-    <row r="74" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+    </row>
+    <row r="74" spans="1:33" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="1"/>
@@ -3948,10 +4608,10 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -3970,8 +4630,12 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-    </row>
-    <row r="75" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+    </row>
+    <row r="75" spans="1:33" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="1"/>
@@ -3979,10 +4643,10 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -4001,8 +4665,12 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-    </row>
-    <row r="76" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+    </row>
+    <row r="76" spans="1:33" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
       <c r="C76" s="1"/>
@@ -4010,10 +4678,10 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -4032,8 +4700,12 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-    </row>
-    <row r="77" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+    </row>
+    <row r="77" spans="1:33" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="C77" s="1"/>
@@ -4041,10 +4713,10 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -4063,8 +4735,12 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-    </row>
-    <row r="78" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+    </row>
+    <row r="78" spans="1:33" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="1"/>
@@ -4072,10 +4748,10 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -4094,8 +4770,12 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-    </row>
-    <row r="79" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+    </row>
+    <row r="79" spans="1:33" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="1"/>
@@ -4103,10 +4783,10 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -4125,8 +4805,12 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-    </row>
-    <row r="80" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+    </row>
+    <row r="80" spans="1:33" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="1"/>
@@ -4134,10 +4818,10 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -4156,8 +4840,12 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-    </row>
-    <row r="81" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+    </row>
+    <row r="81" spans="1:33" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="1"/>
@@ -4165,10 +4853,10 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -4187,8 +4875,12 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
-    </row>
-    <row r="82" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+    </row>
+    <row r="82" spans="1:33" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="1"/>
@@ -4196,10 +4888,10 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -4218,8 +4910,12 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
-    </row>
-    <row r="83" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+    </row>
+    <row r="83" spans="1:33" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="C83" s="1"/>
@@ -4227,10 +4923,10 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -4249,8 +4945,12 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
-    </row>
-    <row r="84" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+    </row>
+    <row r="84" spans="1:33" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
@@ -4258,10 +4958,10 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -4280,8 +4980,12 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
-    </row>
-    <row r="85" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+    </row>
+    <row r="85" spans="1:33" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
@@ -4289,10 +4993,10 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -4311,8 +5015,12 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
-    </row>
-    <row r="86" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+    </row>
+    <row r="86" spans="1:33" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
@@ -4320,10 +5028,10 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -4342,8 +5050,12 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
-    </row>
-    <row r="87" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+    </row>
+    <row r="87" spans="1:33" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
       <c r="C87" s="1"/>
@@ -4351,10 +5063,10 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -4373,8 +5085,12 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
-    </row>
-    <row r="88" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+    </row>
+    <row r="88" spans="1:33" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
@@ -4382,10 +5098,10 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -4404,8 +5120,12 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-    </row>
-    <row r="89" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+    </row>
+    <row r="89" spans="1:33" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
       <c r="C89" s="1"/>
@@ -4413,10 +5133,10 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -4435,8 +5155,12 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
-    </row>
-    <row r="90" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+    </row>
+    <row r="90" spans="1:33" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
@@ -4444,10 +5168,10 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -4466,8 +5190,12 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
-    </row>
-    <row r="91" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+    </row>
+    <row r="91" spans="1:33" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="1"/>
@@ -4475,10 +5203,10 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -4497,8 +5225,12 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
-    </row>
-    <row r="92" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+    </row>
+    <row r="92" spans="1:33" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
       <c r="C92" s="1"/>
@@ -4506,10 +5238,10 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -4528,8 +5260,12 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
-    </row>
-    <row r="93" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+    </row>
+    <row r="93" spans="1:33" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
       <c r="C93" s="1"/>
@@ -4537,10 +5273,10 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -4559,8 +5295,12 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
-    </row>
-    <row r="94" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+    </row>
+    <row r="94" spans="1:33" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
@@ -4568,10 +5308,10 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -4590,8 +5330,12 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
-    </row>
-    <row r="95" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+    </row>
+    <row r="95" spans="1:33" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="1"/>
@@ -4599,10 +5343,10 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -4621,8 +5365,12 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
-    </row>
-    <row r="96" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+    </row>
+    <row r="96" spans="1:33" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
@@ -4630,10 +5378,10 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -4652,8 +5400,12 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
-    </row>
-    <row r="97" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+    </row>
+    <row r="97" spans="1:33" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
@@ -4661,10 +5413,10 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -4683,8 +5435,12 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
-    </row>
-    <row r="98" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+    </row>
+    <row r="98" spans="1:33" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
@@ -4692,10 +5448,10 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -4714,8 +5470,12 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
-    </row>
-    <row r="99" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+    </row>
+    <row r="99" spans="1:33" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
@@ -4723,10 +5483,10 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -4745,8 +5505,12 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
-    </row>
-    <row r="100" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+    </row>
+    <row r="100" spans="1:33" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
@@ -4754,10 +5518,10 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -4776,8 +5540,12 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
-    </row>
-    <row r="101" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+    </row>
+    <row r="101" spans="1:33" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="3"/>
       <c r="C101" s="1"/>
@@ -4785,10 +5553,10 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -4807,8 +5575,12 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
-    </row>
-    <row r="102" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+    </row>
+    <row r="102" spans="1:33" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="3"/>
       <c r="C102" s="1"/>
@@ -4816,10 +5588,10 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -4838,8 +5610,12 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
-    </row>
-    <row r="103" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+    </row>
+    <row r="103" spans="1:33" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="3"/>
       <c r="C103" s="1"/>
@@ -4847,10 +5623,10 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -4869,8 +5645,12 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
-    </row>
-    <row r="104" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+    </row>
+    <row r="104" spans="1:33" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="3"/>
       <c r="C104" s="1"/>
@@ -4878,10 +5658,10 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -4900,8 +5680,12 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
-    </row>
-    <row r="105" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+    </row>
+    <row r="105" spans="1:33" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
@@ -4909,10 +5693,10 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
@@ -4931,8 +5715,12 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
-    </row>
-    <row r="106" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+    </row>
+    <row r="106" spans="1:33" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
       <c r="C106" s="1"/>
@@ -4940,10 +5728,10 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -4962,8 +5750,12 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
-    </row>
-    <row r="107" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+    </row>
+    <row r="107" spans="1:33" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
@@ -4971,10 +5763,10 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -4993,8 +5785,12 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
-    </row>
-    <row r="108" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+    </row>
+    <row r="108" spans="1:33" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="3"/>
       <c r="C108" s="1"/>
@@ -5002,10 +5798,10 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -5024,8 +5820,12 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
-    </row>
-    <row r="109" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+    </row>
+    <row r="109" spans="1:33" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="3"/>
       <c r="C109" s="1"/>
@@ -5033,10 +5833,10 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
@@ -5055,8 +5855,12 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
-    </row>
-    <row r="110" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+    </row>
+    <row r="110" spans="1:33" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="3"/>
       <c r="C110" s="1"/>
@@ -5064,10 +5868,10 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
@@ -5086,8 +5890,12 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
-    </row>
-    <row r="111" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+    </row>
+    <row r="111" spans="1:33" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="3"/>
       <c r="C111" s="1"/>
@@ -5095,10 +5903,10 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
@@ -5117,8 +5925,12 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
-    </row>
-    <row r="112" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+    </row>
+    <row r="112" spans="1:33" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
       <c r="C112" s="1"/>
@@ -5126,10 +5938,10 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
@@ -5148,8 +5960,12 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
-    </row>
-    <row r="113" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+    </row>
+    <row r="113" spans="1:33" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="1"/>
@@ -5157,10 +5973,10 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
@@ -5179,8 +5995,12 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
-    </row>
-    <row r="114" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+    </row>
+    <row r="114" spans="1:33" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="1"/>
@@ -5188,10 +6008,10 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
@@ -5210,8 +6030,12 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
-    </row>
-    <row r="115" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+    </row>
+    <row r="115" spans="1:33" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="1"/>
@@ -5219,10 +6043,10 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
@@ -5241,8 +6065,12 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
-    </row>
-    <row r="116" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+    </row>
+    <row r="116" spans="1:33" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="1"/>
@@ -5250,10 +6078,10 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -5272,8 +6100,12 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
-    </row>
-    <row r="117" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+    </row>
+    <row r="117" spans="1:33" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="1"/>
@@ -5281,10 +6113,10 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
@@ -5303,8 +6135,12 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
-    </row>
-    <row r="118" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+    </row>
+    <row r="118" spans="1:33" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="3"/>
       <c r="C118" s="1"/>
@@ -5312,10 +6148,10 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
@@ -5334,8 +6170,12 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
-    </row>
-    <row r="119" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+    </row>
+    <row r="119" spans="1:33" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="3"/>
       <c r="C119" s="1"/>
@@ -5343,10 +6183,10 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -5365,8 +6205,12 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
-    </row>
-    <row r="120" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+    </row>
+    <row r="120" spans="1:33" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="3"/>
       <c r="C120" s="1"/>
@@ -5374,10 +6218,10 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -5396,8 +6240,12 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
-    </row>
-    <row r="121" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+    </row>
+    <row r="121" spans="1:33" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="3"/>
       <c r="C121" s="1"/>
@@ -5405,10 +6253,10 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -5427,8 +6275,12 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
-    </row>
-    <row r="122" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+    </row>
+    <row r="122" spans="1:33" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="3"/>
       <c r="C122" s="1"/>
@@ -5436,10 +6288,10 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -5458,8 +6310,12 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
-    </row>
-    <row r="123" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+    </row>
+    <row r="123" spans="1:33" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="3"/>
       <c r="C123" s="1"/>
@@ -5467,10 +6323,10 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -5489,8 +6345,12 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
-    </row>
-    <row r="124" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+    </row>
+    <row r="124" spans="1:33" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="3"/>
       <c r="C124" s="1"/>
@@ -5498,10 +6358,10 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -5520,8 +6380,12 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
-    </row>
-    <row r="125" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
+      <c r="AF124" s="1"/>
+      <c r="AG124" s="1"/>
+    </row>
+    <row r="125" spans="1:33" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
       <c r="C125" s="1"/>
@@ -5529,10 +6393,10 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
@@ -5551,8 +6415,12 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
-    </row>
-    <row r="126" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
+      <c r="AF125" s="1"/>
+      <c r="AG125" s="1"/>
+    </row>
+    <row r="126" spans="1:33" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="3"/>
       <c r="C126" s="1"/>
@@ -5560,10 +6428,10 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
@@ -5582,8 +6450,12 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
-    </row>
-    <row r="127" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+    </row>
+    <row r="127" spans="1:33" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="3"/>
       <c r="C127" s="1"/>
@@ -5591,10 +6463,10 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -5613,8 +6485,12 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
-    </row>
-    <row r="128" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
+    </row>
+    <row r="128" spans="1:33" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="3"/>
       <c r="C128" s="1"/>
@@ -5622,10 +6498,10 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
@@ -5644,8 +6520,12 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
-    </row>
-    <row r="129" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
+    </row>
+    <row r="129" spans="1:33" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="3"/>
       <c r="C129" s="1"/>
@@ -5653,10 +6533,10 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -5675,8 +6555,12 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
-    </row>
-    <row r="130" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+    </row>
+    <row r="130" spans="1:33" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="3"/>
       <c r="C130" s="1"/>
@@ -5684,10 +6568,10 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
@@ -5706,8 +6590,12 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
-    </row>
-    <row r="131" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
+      <c r="AG130" s="1"/>
+    </row>
+    <row r="131" spans="1:33" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="1"/>
@@ -5715,10 +6603,10 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -5737,8 +6625,12 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
-    </row>
-    <row r="132" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
+    </row>
+    <row r="132" spans="1:33" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
       <c r="C132" s="1"/>
@@ -5746,10 +6638,10 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
@@ -5768,8 +6660,12 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
-    </row>
-    <row r="133" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="1"/>
+      <c r="AF132" s="1"/>
+      <c r="AG132" s="1"/>
+    </row>
+    <row r="133" spans="1:33" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
       <c r="C133" s="1"/>
@@ -5777,10 +6673,10 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
@@ -5799,8 +6695,12 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
-    </row>
-    <row r="134" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+      <c r="AG133" s="1"/>
+    </row>
+    <row r="134" spans="1:33" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
       <c r="C134" s="1"/>
@@ -5808,10 +6708,10 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
@@ -5830,8 +6730,12 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
-    </row>
-    <row r="135" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+    </row>
+    <row r="135" spans="1:33" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="3"/>
       <c r="C135" s="1"/>
@@ -5839,10 +6743,10 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
@@ -5861,8 +6765,12 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
       <c r="AC135" s="1"/>
-    </row>
-    <row r="136" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
+      <c r="AG135" s="1"/>
+    </row>
+    <row r="136" spans="1:33" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="3"/>
       <c r="C136" s="1"/>
@@ -5870,10 +6778,10 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
@@ -5892,8 +6800,12 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
       <c r="AC136" s="1"/>
-    </row>
-    <row r="137" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="1"/>
+      <c r="AF136" s="1"/>
+      <c r="AG136" s="1"/>
+    </row>
+    <row r="137" spans="1:33" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="3"/>
       <c r="C137" s="1"/>
@@ -5901,10 +6813,10 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -5923,8 +6835,12 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
-    </row>
-    <row r="138" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+    </row>
+    <row r="138" spans="1:33" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="3"/>
       <c r="C138" s="1"/>
@@ -5932,10 +6848,10 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
@@ -5954,8 +6870,12 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
-    </row>
-    <row r="139" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+      <c r="AG138" s="1"/>
+    </row>
+    <row r="139" spans="1:33" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="3"/>
       <c r="C139" s="1"/>
@@ -5963,10 +6883,10 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -5985,8 +6905,12 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
-    </row>
-    <row r="140" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD139" s="1"/>
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="1"/>
+      <c r="AG139" s="1"/>
+    </row>
+    <row r="140" spans="1:33" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="3"/>
       <c r="C140" s="1"/>
@@ -5994,10 +6918,10 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -6016,8 +6940,12 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
-    </row>
-    <row r="141" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD140" s="1"/>
+      <c r="AE140" s="1"/>
+      <c r="AF140" s="1"/>
+      <c r="AG140" s="1"/>
+    </row>
+    <row r="141" spans="1:33" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="3"/>
       <c r="C141" s="1"/>
@@ -6025,10 +6953,10 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
@@ -6047,8 +6975,12 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
-    </row>
-    <row r="142" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD141" s="1"/>
+      <c r="AE141" s="1"/>
+      <c r="AF141" s="1"/>
+      <c r="AG141" s="1"/>
+    </row>
+    <row r="142" spans="1:33" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="3"/>
       <c r="C142" s="1"/>
@@ -6056,10 +6988,10 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
@@ -6078,8 +7010,12 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
-    </row>
-    <row r="143" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD142" s="1"/>
+      <c r="AE142" s="1"/>
+      <c r="AF142" s="1"/>
+      <c r="AG142" s="1"/>
+    </row>
+    <row r="143" spans="1:33" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="3"/>
       <c r="C143" s="1"/>
@@ -6087,10 +7023,10 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
@@ -6109,8 +7045,12 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
-    </row>
-    <row r="144" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD143" s="1"/>
+      <c r="AE143" s="1"/>
+      <c r="AF143" s="1"/>
+      <c r="AG143" s="1"/>
+    </row>
+    <row r="144" spans="1:33" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="1"/>
@@ -6118,10 +7058,10 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
@@ -6140,8 +7080,12 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
       <c r="AC144" s="1"/>
-    </row>
-    <row r="145" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD144" s="1"/>
+      <c r="AE144" s="1"/>
+      <c r="AF144" s="1"/>
+      <c r="AG144" s="1"/>
+    </row>
+    <row r="145" spans="1:33" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="1"/>
@@ -6149,10 +7093,10 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
@@ -6171,8 +7115,12 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
       <c r="AC145" s="1"/>
-    </row>
-    <row r="146" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD145" s="1"/>
+      <c r="AE145" s="1"/>
+      <c r="AF145" s="1"/>
+      <c r="AG145" s="1"/>
+    </row>
+    <row r="146" spans="1:33" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="3"/>
       <c r="C146" s="1"/>
@@ -6180,10 +7128,10 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
@@ -6202,8 +7150,12 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
-    </row>
-    <row r="147" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD146" s="1"/>
+      <c r="AE146" s="1"/>
+      <c r="AF146" s="1"/>
+      <c r="AG146" s="1"/>
+    </row>
+    <row r="147" spans="1:33" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="3"/>
       <c r="C147" s="1"/>
@@ -6211,10 +7163,10 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
@@ -6233,8 +7185,12 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
       <c r="AC147" s="1"/>
-    </row>
-    <row r="148" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD147" s="1"/>
+      <c r="AE147" s="1"/>
+      <c r="AF147" s="1"/>
+      <c r="AG147" s="1"/>
+    </row>
+    <row r="148" spans="1:33" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="3"/>
       <c r="C148" s="1"/>
@@ -6242,10 +7198,10 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
@@ -6264,8 +7220,12 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
-    </row>
-    <row r="149" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD148" s="1"/>
+      <c r="AE148" s="1"/>
+      <c r="AF148" s="1"/>
+      <c r="AG148" s="1"/>
+    </row>
+    <row r="149" spans="1:33" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="3"/>
       <c r="C149" s="1"/>
@@ -6273,10 +7233,10 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
@@ -6295,8 +7255,12 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
-    </row>
-    <row r="150" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD149" s="1"/>
+      <c r="AE149" s="1"/>
+      <c r="AF149" s="1"/>
+      <c r="AG149" s="1"/>
+    </row>
+    <row r="150" spans="1:33" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="3"/>
       <c r="C150" s="1"/>
@@ -6304,10 +7268,10 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
@@ -6326,8 +7290,12 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
-    </row>
-    <row r="151" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD150" s="1"/>
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+      <c r="AG150" s="1"/>
+    </row>
+    <row r="151" spans="1:33" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="1"/>
@@ -6335,10 +7303,10 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
@@ -6357,8 +7325,12 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
-    </row>
-    <row r="152" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD151" s="1"/>
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="1"/>
+      <c r="AG151" s="1"/>
+    </row>
+    <row r="152" spans="1:33" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="3"/>
       <c r="C152" s="1"/>
@@ -6366,10 +7338,10 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
@@ -6388,8 +7360,12 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
-    </row>
-    <row r="153" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD152" s="1"/>
+      <c r="AE152" s="1"/>
+      <c r="AF152" s="1"/>
+      <c r="AG152" s="1"/>
+    </row>
+    <row r="153" spans="1:33" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="3"/>
       <c r="C153" s="1"/>
@@ -6397,10 +7373,10 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
@@ -6419,8 +7395,12 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
-    </row>
-    <row r="154" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD153" s="1"/>
+      <c r="AE153" s="1"/>
+      <c r="AF153" s="1"/>
+      <c r="AG153" s="1"/>
+    </row>
+    <row r="154" spans="1:33" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="3"/>
       <c r="C154" s="1"/>
@@ -6428,10 +7408,10 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
@@ -6450,8 +7430,12 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
-    </row>
-    <row r="155" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD154" s="1"/>
+      <c r="AE154" s="1"/>
+      <c r="AF154" s="1"/>
+      <c r="AG154" s="1"/>
+    </row>
+    <row r="155" spans="1:33" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="3"/>
       <c r="C155" s="1"/>
@@ -6459,10 +7443,10 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
@@ -6481,8 +7465,12 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
-    </row>
-    <row r="156" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD155" s="1"/>
+      <c r="AE155" s="1"/>
+      <c r="AF155" s="1"/>
+      <c r="AG155" s="1"/>
+    </row>
+    <row r="156" spans="1:33" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="3"/>
       <c r="C156" s="1"/>
@@ -6490,10 +7478,10 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
@@ -6512,8 +7500,12 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
-    </row>
-    <row r="157" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD156" s="1"/>
+      <c r="AE156" s="1"/>
+      <c r="AF156" s="1"/>
+      <c r="AG156" s="1"/>
+    </row>
+    <row r="157" spans="1:33" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="3"/>
       <c r="C157" s="1"/>
@@ -6521,10 +7513,10 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
@@ -6543,8 +7535,12 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
-    </row>
-    <row r="158" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD157" s="1"/>
+      <c r="AE157" s="1"/>
+      <c r="AF157" s="1"/>
+      <c r="AG157" s="1"/>
+    </row>
+    <row r="158" spans="1:33" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="3"/>
       <c r="C158" s="1"/>
@@ -6552,10 +7548,10 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
@@ -6574,8 +7570,12 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
-    </row>
-    <row r="159" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD158" s="1"/>
+      <c r="AE158" s="1"/>
+      <c r="AF158" s="1"/>
+      <c r="AG158" s="1"/>
+    </row>
+    <row r="159" spans="1:33" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="3"/>
       <c r="C159" s="1"/>
@@ -6583,10 +7583,10 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
@@ -6605,8 +7605,12 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
-    </row>
-    <row r="160" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD159" s="1"/>
+      <c r="AE159" s="1"/>
+      <c r="AF159" s="1"/>
+      <c r="AG159" s="1"/>
+    </row>
+    <row r="160" spans="1:33" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="3"/>
       <c r="C160" s="1"/>
@@ -6614,10 +7618,10 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
@@ -6636,8 +7640,12 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
-    </row>
-    <row r="161" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD160" s="1"/>
+      <c r="AE160" s="1"/>
+      <c r="AF160" s="1"/>
+      <c r="AG160" s="1"/>
+    </row>
+    <row r="161" spans="1:33" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="3"/>
       <c r="C161" s="1"/>
@@ -6645,10 +7653,10 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
@@ -6667,8 +7675,12 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
-    </row>
-    <row r="162" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD161" s="1"/>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="1"/>
+      <c r="AG161" s="1"/>
+    </row>
+    <row r="162" spans="1:33" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="3"/>
       <c r="C162" s="1"/>
@@ -6676,10 +7688,10 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
@@ -6698,8 +7710,12 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
-    </row>
-    <row r="163" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD162" s="1"/>
+      <c r="AE162" s="1"/>
+      <c r="AF162" s="1"/>
+      <c r="AG162" s="1"/>
+    </row>
+    <row r="163" spans="1:33" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="3"/>
       <c r="C163" s="1"/>
@@ -6707,10 +7723,10 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
@@ -6729,8 +7745,12 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
-    </row>
-    <row r="164" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD163" s="1"/>
+      <c r="AE163" s="1"/>
+      <c r="AF163" s="1"/>
+      <c r="AG163" s="1"/>
+    </row>
+    <row r="164" spans="1:33" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="3"/>
       <c r="C164" s="1"/>
@@ -6738,10 +7758,10 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
@@ -6760,8 +7780,12 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
-    </row>
-    <row r="165" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD164" s="1"/>
+      <c r="AE164" s="1"/>
+      <c r="AF164" s="1"/>
+      <c r="AG164" s="1"/>
+    </row>
+    <row r="165" spans="1:33" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="3"/>
       <c r="C165" s="1"/>
@@ -6769,10 +7793,10 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
@@ -6791,8 +7815,12 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
       <c r="AC165" s="1"/>
-    </row>
-    <row r="166" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD165" s="1"/>
+      <c r="AE165" s="1"/>
+      <c r="AF165" s="1"/>
+      <c r="AG165" s="1"/>
+    </row>
+    <row r="166" spans="1:33" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="3"/>
       <c r="C166" s="1"/>
@@ -6800,10 +7828,10 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
@@ -6822,8 +7850,12 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
       <c r="AC166" s="1"/>
-    </row>
-    <row r="167" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD166" s="1"/>
+      <c r="AE166" s="1"/>
+      <c r="AF166" s="1"/>
+      <c r="AG166" s="1"/>
+    </row>
+    <row r="167" spans="1:33" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="3"/>
       <c r="C167" s="1"/>
@@ -6831,10 +7863,10 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -6853,8 +7885,12 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
       <c r="AC167" s="1"/>
-    </row>
-    <row r="168" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD167" s="1"/>
+      <c r="AE167" s="1"/>
+      <c r="AF167" s="1"/>
+      <c r="AG167" s="1"/>
+    </row>
+    <row r="168" spans="1:33" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="3"/>
       <c r="C168" s="1"/>
@@ -6862,10 +7898,10 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -6884,8 +7920,12 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
       <c r="AC168" s="1"/>
-    </row>
-    <row r="169" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD168" s="1"/>
+      <c r="AE168" s="1"/>
+      <c r="AF168" s="1"/>
+      <c r="AG168" s="1"/>
+    </row>
+    <row r="169" spans="1:33" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="3"/>
       <c r="C169" s="1"/>
@@ -6893,10 +7933,10 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
@@ -6915,8 +7955,12 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
       <c r="AC169" s="1"/>
-    </row>
-    <row r="170" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD169" s="1"/>
+      <c r="AE169" s="1"/>
+      <c r="AF169" s="1"/>
+      <c r="AG169" s="1"/>
+    </row>
+    <row r="170" spans="1:33" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="3"/>
       <c r="C170" s="1"/>
@@ -6924,10 +7968,10 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
@@ -6946,8 +7990,12 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
       <c r="AC170" s="1"/>
-    </row>
-    <row r="171" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD170" s="1"/>
+      <c r="AE170" s="1"/>
+      <c r="AF170" s="1"/>
+      <c r="AG170" s="1"/>
+    </row>
+    <row r="171" spans="1:33" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="3"/>
       <c r="C171" s="1"/>
@@ -6955,10 +8003,10 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -6977,8 +8025,12 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
       <c r="AC171" s="1"/>
-    </row>
-    <row r="172" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD171" s="1"/>
+      <c r="AE171" s="1"/>
+      <c r="AF171" s="1"/>
+      <c r="AG171" s="1"/>
+    </row>
+    <row r="172" spans="1:33" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="3"/>
       <c r="C172" s="1"/>
@@ -6986,10 +8038,10 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -7008,8 +8060,12 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
       <c r="AC172" s="1"/>
-    </row>
-    <row r="173" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD172" s="1"/>
+      <c r="AE172" s="1"/>
+      <c r="AF172" s="1"/>
+      <c r="AG172" s="1"/>
+    </row>
+    <row r="173" spans="1:33" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="3"/>
       <c r="C173" s="1"/>
@@ -7017,10 +8073,10 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
@@ -7039,8 +8095,12 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
       <c r="AC173" s="1"/>
-    </row>
-    <row r="174" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD173" s="1"/>
+      <c r="AE173" s="1"/>
+      <c r="AF173" s="1"/>
+      <c r="AG173" s="1"/>
+    </row>
+    <row r="174" spans="1:33" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="3"/>
       <c r="C174" s="1"/>
@@ -7048,10 +8108,10 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
@@ -7070,8 +8130,12 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
       <c r="AC174" s="1"/>
-    </row>
-    <row r="175" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD174" s="1"/>
+      <c r="AE174" s="1"/>
+      <c r="AF174" s="1"/>
+      <c r="AG174" s="1"/>
+    </row>
+    <row r="175" spans="1:33" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="3"/>
       <c r="C175" s="1"/>
@@ -7079,10 +8143,10 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
@@ -7101,8 +8165,12 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
-    </row>
-    <row r="176" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD175" s="1"/>
+      <c r="AE175" s="1"/>
+      <c r="AF175" s="1"/>
+      <c r="AG175" s="1"/>
+    </row>
+    <row r="176" spans="1:33" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="3"/>
       <c r="C176" s="1"/>
@@ -7110,10 +8178,10 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
@@ -7132,8 +8200,12 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
       <c r="AC176" s="1"/>
-    </row>
-    <row r="177" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD176" s="1"/>
+      <c r="AE176" s="1"/>
+      <c r="AF176" s="1"/>
+      <c r="AG176" s="1"/>
+    </row>
+    <row r="177" spans="1:33" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="3"/>
       <c r="C177" s="1"/>
@@ -7141,10 +8213,10 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
@@ -7163,8 +8235,12 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
-    </row>
-    <row r="178" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD177" s="1"/>
+      <c r="AE177" s="1"/>
+      <c r="AF177" s="1"/>
+      <c r="AG177" s="1"/>
+    </row>
+    <row r="178" spans="1:33" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="3"/>
       <c r="C178" s="1"/>
@@ -7172,10 +8248,10 @@
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
@@ -7194,8 +8270,12 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
       <c r="AC178" s="1"/>
-    </row>
-    <row r="179" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD178" s="1"/>
+      <c r="AE178" s="1"/>
+      <c r="AF178" s="1"/>
+      <c r="AG178" s="1"/>
+    </row>
+    <row r="179" spans="1:33" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="3"/>
       <c r="C179" s="1"/>
@@ -7203,10 +8283,10 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
@@ -7225,8 +8305,12 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
       <c r="AC179" s="1"/>
-    </row>
-    <row r="180" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD179" s="1"/>
+      <c r="AE179" s="1"/>
+      <c r="AF179" s="1"/>
+      <c r="AG179" s="1"/>
+    </row>
+    <row r="180" spans="1:33" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="3"/>
       <c r="C180" s="1"/>
@@ -7234,10 +8318,10 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
@@ -7256,8 +8340,12 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
       <c r="AC180" s="1"/>
-    </row>
-    <row r="181" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD180" s="1"/>
+      <c r="AE180" s="1"/>
+      <c r="AF180" s="1"/>
+      <c r="AG180" s="1"/>
+    </row>
+    <row r="181" spans="1:33" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="3"/>
       <c r="C181" s="1"/>
@@ -7265,10 +8353,10 @@
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
@@ -7287,8 +8375,12 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
       <c r="AC181" s="1"/>
-    </row>
-    <row r="182" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD181" s="1"/>
+      <c r="AE181" s="1"/>
+      <c r="AF181" s="1"/>
+      <c r="AG181" s="1"/>
+    </row>
+    <row r="182" spans="1:33" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="3"/>
       <c r="C182" s="1"/>
@@ -7296,10 +8388,10 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
@@ -7318,8 +8410,12 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
       <c r="AC182" s="1"/>
-    </row>
-    <row r="183" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD182" s="1"/>
+      <c r="AE182" s="1"/>
+      <c r="AF182" s="1"/>
+      <c r="AG182" s="1"/>
+    </row>
+    <row r="183" spans="1:33" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="3"/>
       <c r="C183" s="1"/>
@@ -7327,10 +8423,10 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
@@ -7349,8 +8445,12 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
       <c r="AC183" s="1"/>
-    </row>
-    <row r="184" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD183" s="1"/>
+      <c r="AE183" s="1"/>
+      <c r="AF183" s="1"/>
+      <c r="AG183" s="1"/>
+    </row>
+    <row r="184" spans="1:33" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="3"/>
       <c r="C184" s="1"/>
@@ -7358,10 +8458,10 @@
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -7380,8 +8480,12 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
       <c r="AC184" s="1"/>
-    </row>
-    <row r="185" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD184" s="1"/>
+      <c r="AE184" s="1"/>
+      <c r="AF184" s="1"/>
+      <c r="AG184" s="1"/>
+    </row>
+    <row r="185" spans="1:33" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="3"/>
       <c r="C185" s="1"/>
@@ -7389,10 +8493,10 @@
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
@@ -7411,8 +8515,12 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
       <c r="AC185" s="1"/>
-    </row>
-    <row r="186" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD185" s="1"/>
+      <c r="AE185" s="1"/>
+      <c r="AF185" s="1"/>
+      <c r="AG185" s="1"/>
+    </row>
+    <row r="186" spans="1:33" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="3"/>
       <c r="C186" s="1"/>
@@ -7420,10 +8528,10 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
@@ -7442,8 +8550,12 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
-    </row>
-    <row r="187" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD186" s="1"/>
+      <c r="AE186" s="1"/>
+      <c r="AF186" s="1"/>
+      <c r="AG186" s="1"/>
+    </row>
+    <row r="187" spans="1:33" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="3"/>
       <c r="C187" s="1"/>
@@ -7451,10 +8563,10 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
@@ -7473,8 +8585,12 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
       <c r="AC187" s="1"/>
-    </row>
-    <row r="188" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD187" s="1"/>
+      <c r="AE187" s="1"/>
+      <c r="AF187" s="1"/>
+      <c r="AG187" s="1"/>
+    </row>
+    <row r="188" spans="1:33" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="3"/>
       <c r="C188" s="1"/>
@@ -7482,10 +8598,10 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
@@ -7504,8 +8620,12 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
-    </row>
-    <row r="189" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD188" s="1"/>
+      <c r="AE188" s="1"/>
+      <c r="AF188" s="1"/>
+      <c r="AG188" s="1"/>
+    </row>
+    <row r="189" spans="1:33" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="3"/>
       <c r="C189" s="1"/>
@@ -7513,10 +8633,10 @@
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
@@ -7535,8 +8655,12 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
-    </row>
-    <row r="190" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD189" s="1"/>
+      <c r="AE189" s="1"/>
+      <c r="AF189" s="1"/>
+      <c r="AG189" s="1"/>
+    </row>
+    <row r="190" spans="1:33" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="3"/>
       <c r="C190" s="1"/>
@@ -7544,10 +8668,10 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
@@ -7566,8 +8690,12 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
-    </row>
-    <row r="191" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD190" s="1"/>
+      <c r="AE190" s="1"/>
+      <c r="AF190" s="1"/>
+      <c r="AG190" s="1"/>
+    </row>
+    <row r="191" spans="1:33" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="3"/>
       <c r="C191" s="1"/>
@@ -7575,10 +8703,10 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
@@ -7597,8 +8725,12 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
       <c r="AC191" s="1"/>
-    </row>
-    <row r="192" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD191" s="1"/>
+      <c r="AE191" s="1"/>
+      <c r="AF191" s="1"/>
+      <c r="AG191" s="1"/>
+    </row>
+    <row r="192" spans="1:33" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="3"/>
       <c r="C192" s="1"/>
@@ -7606,10 +8738,10 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -7628,8 +8760,12 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
       <c r="AC192" s="1"/>
-    </row>
-    <row r="193" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD192" s="1"/>
+      <c r="AE192" s="1"/>
+      <c r="AF192" s="1"/>
+      <c r="AG192" s="1"/>
+    </row>
+    <row r="193" spans="1:33" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="3"/>
       <c r="C193" s="1"/>
@@ -7637,10 +8773,10 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -7659,8 +8795,12 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
       <c r="AC193" s="1"/>
-    </row>
-    <row r="194" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD193" s="1"/>
+      <c r="AE193" s="1"/>
+      <c r="AF193" s="1"/>
+      <c r="AG193" s="1"/>
+    </row>
+    <row r="194" spans="1:33" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="3"/>
       <c r="C194" s="1"/>
@@ -7668,10 +8808,10 @@
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
@@ -7690,8 +8830,12 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
       <c r="AC194" s="1"/>
-    </row>
-    <row r="195" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD194" s="1"/>
+      <c r="AE194" s="1"/>
+      <c r="AF194" s="1"/>
+      <c r="AG194" s="1"/>
+    </row>
+    <row r="195" spans="1:33" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="3"/>
       <c r="C195" s="1"/>
@@ -7699,10 +8843,10 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
@@ -7721,8 +8865,12 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
       <c r="AC195" s="1"/>
-    </row>
-    <row r="196" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD195" s="1"/>
+      <c r="AE195" s="1"/>
+      <c r="AF195" s="1"/>
+      <c r="AG195" s="1"/>
+    </row>
+    <row r="196" spans="1:33" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="3"/>
       <c r="C196" s="1"/>
@@ -7730,10 +8878,10 @@
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
@@ -7752,8 +8900,12 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
       <c r="AC196" s="1"/>
-    </row>
-    <row r="197" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD196" s="1"/>
+      <c r="AE196" s="1"/>
+      <c r="AF196" s="1"/>
+      <c r="AG196" s="1"/>
+    </row>
+    <row r="197" spans="1:33" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="3"/>
       <c r="C197" s="1"/>
@@ -7761,10 +8913,10 @@
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
@@ -7783,8 +8935,12 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
-    </row>
-    <row r="198" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD197" s="1"/>
+      <c r="AE197" s="1"/>
+      <c r="AF197" s="1"/>
+      <c r="AG197" s="1"/>
+    </row>
+    <row r="198" spans="1:33" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="3"/>
       <c r="C198" s="1"/>
@@ -7792,10 +8948,10 @@
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
@@ -7814,8 +8970,12 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
       <c r="AC198" s="1"/>
-    </row>
-    <row r="199" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD198" s="1"/>
+      <c r="AE198" s="1"/>
+      <c r="AF198" s="1"/>
+      <c r="AG198" s="1"/>
+    </row>
+    <row r="199" spans="1:33" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="3"/>
       <c r="C199" s="1"/>
@@ -7823,10 +8983,10 @@
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
@@ -7845,8 +9005,12 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
       <c r="AC199" s="1"/>
-    </row>
-    <row r="200" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD199" s="1"/>
+      <c r="AE199" s="1"/>
+      <c r="AF199" s="1"/>
+      <c r="AG199" s="1"/>
+    </row>
+    <row r="200" spans="1:33" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="3"/>
       <c r="C200" s="1"/>
@@ -7854,10 +9018,10 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
@@ -7876,8 +9040,12 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
       <c r="AC200" s="1"/>
-    </row>
-    <row r="201" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD200" s="1"/>
+      <c r="AE200" s="1"/>
+      <c r="AF200" s="1"/>
+      <c r="AG200" s="1"/>
+    </row>
+    <row r="201" spans="1:33" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="3"/>
       <c r="C201" s="1"/>
@@ -7885,10 +9053,10 @@
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
@@ -7907,8 +9075,12 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
       <c r="AC201" s="1"/>
-    </row>
-    <row r="202" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD201" s="1"/>
+      <c r="AE201" s="1"/>
+      <c r="AF201" s="1"/>
+      <c r="AG201" s="1"/>
+    </row>
+    <row r="202" spans="1:33" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="3"/>
       <c r="C202" s="1"/>
@@ -7916,10 +9088,10 @@
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
@@ -7938,8 +9110,12 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
-    </row>
-    <row r="203" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD202" s="1"/>
+      <c r="AE202" s="1"/>
+      <c r="AF202" s="1"/>
+      <c r="AG202" s="1"/>
+    </row>
+    <row r="203" spans="1:33" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="3"/>
       <c r="C203" s="1"/>
@@ -7947,10 +9123,10 @@
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
@@ -7969,8 +9145,12 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
-    </row>
-    <row r="204" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD203" s="1"/>
+      <c r="AE203" s="1"/>
+      <c r="AF203" s="1"/>
+      <c r="AG203" s="1"/>
+    </row>
+    <row r="204" spans="1:33" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="3"/>
       <c r="C204" s="1"/>
@@ -7978,10 +9158,10 @@
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
@@ -8000,8 +9180,12 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
-    </row>
-    <row r="205" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD204" s="1"/>
+      <c r="AE204" s="1"/>
+      <c r="AF204" s="1"/>
+      <c r="AG204" s="1"/>
+    </row>
+    <row r="205" spans="1:33" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="3"/>
       <c r="C205" s="1"/>
@@ -8009,10 +9193,10 @@
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
@@ -8031,8 +9215,12 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
-    </row>
-    <row r="206" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD205" s="1"/>
+      <c r="AE205" s="1"/>
+      <c r="AF205" s="1"/>
+      <c r="AG205" s="1"/>
+    </row>
+    <row r="206" spans="1:33" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="3"/>
       <c r="C206" s="1"/>
@@ -8040,10 +9228,10 @@
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -8062,8 +9250,12 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
-    </row>
-    <row r="207" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD206" s="1"/>
+      <c r="AE206" s="1"/>
+      <c r="AF206" s="1"/>
+      <c r="AG206" s="1"/>
+    </row>
+    <row r="207" spans="1:33" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="3"/>
       <c r="C207" s="1"/>
@@ -8071,10 +9263,10 @@
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
@@ -8093,8 +9285,12 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
-    </row>
-    <row r="208" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD207" s="1"/>
+      <c r="AE207" s="1"/>
+      <c r="AF207" s="1"/>
+      <c r="AG207" s="1"/>
+    </row>
+    <row r="208" spans="1:33" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="3"/>
       <c r="C208" s="1"/>
@@ -8102,10 +9298,10 @@
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
@@ -8124,8 +9320,12 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
       <c r="AC208" s="1"/>
-    </row>
-    <row r="209" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD208" s="1"/>
+      <c r="AE208" s="1"/>
+      <c r="AF208" s="1"/>
+      <c r="AG208" s="1"/>
+    </row>
+    <row r="209" spans="1:33" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="3"/>
       <c r="C209" s="1"/>
@@ -8133,10 +9333,10 @@
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
@@ -8155,8 +9355,12 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
-    </row>
-    <row r="210" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD209" s="1"/>
+      <c r="AE209" s="1"/>
+      <c r="AF209" s="1"/>
+      <c r="AG209" s="1"/>
+    </row>
+    <row r="210" spans="1:33" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="3"/>
       <c r="C210" s="1"/>
@@ -8164,10 +9368,10 @@
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -8186,8 +9390,12 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
       <c r="AC210" s="1"/>
-    </row>
-    <row r="211" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD210" s="1"/>
+      <c r="AE210" s="1"/>
+      <c r="AF210" s="1"/>
+      <c r="AG210" s="1"/>
+    </row>
+    <row r="211" spans="1:33" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="3"/>
       <c r="C211" s="1"/>
@@ -8195,10 +9403,10 @@
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -8217,8 +9425,12 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
       <c r="AC211" s="1"/>
-    </row>
-    <row r="212" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD211" s="1"/>
+      <c r="AE211" s="1"/>
+      <c r="AF211" s="1"/>
+      <c r="AG211" s="1"/>
+    </row>
+    <row r="212" spans="1:33" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="3"/>
       <c r="C212" s="1"/>
@@ -8226,10 +9438,10 @@
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
@@ -8248,8 +9460,12 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
       <c r="AC212" s="1"/>
-    </row>
-    <row r="213" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD212" s="1"/>
+      <c r="AE212" s="1"/>
+      <c r="AF212" s="1"/>
+      <c r="AG212" s="1"/>
+    </row>
+    <row r="213" spans="1:33" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="3"/>
       <c r="C213" s="1"/>
@@ -8257,10 +9473,10 @@
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
@@ -8279,8 +9495,12 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
       <c r="AC213" s="1"/>
-    </row>
-    <row r="214" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD213" s="1"/>
+      <c r="AE213" s="1"/>
+      <c r="AF213" s="1"/>
+      <c r="AG213" s="1"/>
+    </row>
+    <row r="214" spans="1:33" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="3"/>
       <c r="C214" s="1"/>
@@ -8288,10 +9508,10 @@
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
@@ -8310,8 +9530,12 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
       <c r="AC214" s="1"/>
-    </row>
-    <row r="215" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD214" s="1"/>
+      <c r="AE214" s="1"/>
+      <c r="AF214" s="1"/>
+      <c r="AG214" s="1"/>
+    </row>
+    <row r="215" spans="1:33" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="3"/>
       <c r="C215" s="1"/>
@@ -8319,10 +9543,10 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
@@ -8341,8 +9565,12 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
       <c r="AC215" s="1"/>
-    </row>
-    <row r="216" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD215" s="1"/>
+      <c r="AE215" s="1"/>
+      <c r="AF215" s="1"/>
+      <c r="AG215" s="1"/>
+    </row>
+    <row r="216" spans="1:33" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="3"/>
       <c r="C216" s="1"/>
@@ -8350,10 +9578,10 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
@@ -8372,8 +9600,12 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
       <c r="AC216" s="1"/>
-    </row>
-    <row r="217" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD216" s="1"/>
+      <c r="AE216" s="1"/>
+      <c r="AF216" s="1"/>
+      <c r="AG216" s="1"/>
+    </row>
+    <row r="217" spans="1:33" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="3"/>
       <c r="C217" s="1"/>
@@ -8381,10 +9613,10 @@
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
@@ -8403,8 +9635,12 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
       <c r="AC217" s="1"/>
-    </row>
-    <row r="218" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD217" s="1"/>
+      <c r="AE217" s="1"/>
+      <c r="AF217" s="1"/>
+      <c r="AG217" s="1"/>
+    </row>
+    <row r="218" spans="1:33" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="3"/>
       <c r="C218" s="1"/>
@@ -8412,10 +9648,10 @@
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
@@ -8434,8 +9670,12 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
       <c r="AC218" s="1"/>
-    </row>
-    <row r="219" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD218" s="1"/>
+      <c r="AE218" s="1"/>
+      <c r="AF218" s="1"/>
+      <c r="AG218" s="1"/>
+    </row>
+    <row r="219" spans="1:33" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="3"/>
       <c r="C219" s="1"/>
@@ -8443,10 +9683,10 @@
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
@@ -8465,8 +9705,12 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
       <c r="AC219" s="1"/>
-    </row>
-    <row r="220" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD219" s="1"/>
+      <c r="AE219" s="1"/>
+      <c r="AF219" s="1"/>
+      <c r="AG219" s="1"/>
+    </row>
+    <row r="220" spans="1:33" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="3"/>
       <c r="C220" s="1"/>
@@ -8474,10 +9718,10 @@
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -8496,8 +9740,12 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
-    </row>
-    <row r="221" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD220" s="1"/>
+      <c r="AE220" s="1"/>
+      <c r="AF220" s="1"/>
+      <c r="AG220" s="1"/>
+    </row>
+    <row r="221" spans="1:33" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="3"/>
       <c r="C221" s="1"/>
@@ -8505,10 +9753,10 @@
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
@@ -8527,8 +9775,12 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
-    </row>
-    <row r="222" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD221" s="1"/>
+      <c r="AE221" s="1"/>
+      <c r="AF221" s="1"/>
+      <c r="AG221" s="1"/>
+    </row>
+    <row r="222" spans="1:33" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="3"/>
       <c r="C222" s="1"/>
@@ -8536,10 +9788,10 @@
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -8558,8 +9810,12 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
-    </row>
-    <row r="223" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD222" s="1"/>
+      <c r="AE222" s="1"/>
+      <c r="AF222" s="1"/>
+      <c r="AG222" s="1"/>
+    </row>
+    <row r="223" spans="1:33" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="3"/>
       <c r="C223" s="1"/>
@@ -8567,10 +9823,10 @@
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
@@ -8589,8 +9845,12 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
       <c r="AC223" s="1"/>
-    </row>
-    <row r="224" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD223" s="1"/>
+      <c r="AE223" s="1"/>
+      <c r="AF223" s="1"/>
+      <c r="AG223" s="1"/>
+    </row>
+    <row r="224" spans="1:33" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="3"/>
       <c r="C224" s="1"/>
@@ -8598,10 +9858,10 @@
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
@@ -8620,8 +9880,12 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
       <c r="AC224" s="1"/>
-    </row>
-    <row r="225" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD224" s="1"/>
+      <c r="AE224" s="1"/>
+      <c r="AF224" s="1"/>
+      <c r="AG224" s="1"/>
+    </row>
+    <row r="225" spans="1:33" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="3"/>
       <c r="C225" s="1"/>
@@ -8629,10 +9893,10 @@
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
@@ -8651,8 +9915,12 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
       <c r="AC225" s="1"/>
-    </row>
-    <row r="226" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD225" s="1"/>
+      <c r="AE225" s="1"/>
+      <c r="AF225" s="1"/>
+      <c r="AG225" s="1"/>
+    </row>
+    <row r="226" spans="1:33" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="3"/>
       <c r="C226" s="1"/>
@@ -8660,10 +9928,10 @@
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
@@ -8682,8 +9950,12 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
-    </row>
-    <row r="227" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD226" s="1"/>
+      <c r="AE226" s="1"/>
+      <c r="AF226" s="1"/>
+      <c r="AG226" s="1"/>
+    </row>
+    <row r="227" spans="1:33" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="3"/>
       <c r="C227" s="1"/>
@@ -8691,10 +9963,10 @@
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
@@ -8713,8 +9985,12 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
       <c r="AC227" s="1"/>
-    </row>
-    <row r="228" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD227" s="1"/>
+      <c r="AE227" s="1"/>
+      <c r="AF227" s="1"/>
+      <c r="AG227" s="1"/>
+    </row>
+    <row r="228" spans="1:33" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="3"/>
       <c r="C228" s="1"/>
@@ -8722,10 +9998,10 @@
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -8744,8 +10020,12 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
       <c r="AC228" s="1"/>
-    </row>
-    <row r="229" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD228" s="1"/>
+      <c r="AE228" s="1"/>
+      <c r="AF228" s="1"/>
+      <c r="AG228" s="1"/>
+    </row>
+    <row r="229" spans="1:33" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="3"/>
       <c r="C229" s="1"/>
@@ -8753,10 +10033,10 @@
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
@@ -8775,8 +10055,12 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
       <c r="AC229" s="1"/>
-    </row>
-    <row r="230" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD229" s="1"/>
+      <c r="AE229" s="1"/>
+      <c r="AF229" s="1"/>
+      <c r="AG229" s="1"/>
+    </row>
+    <row r="230" spans="1:33" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="3"/>
       <c r="C230" s="1"/>
@@ -8784,10 +10068,10 @@
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
@@ -8806,8 +10090,12 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
       <c r="AC230" s="1"/>
-    </row>
-    <row r="231" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD230" s="1"/>
+      <c r="AE230" s="1"/>
+      <c r="AF230" s="1"/>
+      <c r="AG230" s="1"/>
+    </row>
+    <row r="231" spans="1:33" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="3"/>
       <c r="C231" s="1"/>
@@ -8815,10 +10103,10 @@
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
@@ -8837,8 +10125,12 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
       <c r="AC231" s="1"/>
-    </row>
-    <row r="232" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD231" s="1"/>
+      <c r="AE231" s="1"/>
+      <c r="AF231" s="1"/>
+      <c r="AG231" s="1"/>
+    </row>
+    <row r="232" spans="1:33" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="3"/>
       <c r="C232" s="1"/>
@@ -8846,10 +10138,10 @@
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
@@ -8868,8 +10160,12 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
       <c r="AC232" s="1"/>
-    </row>
-    <row r="233" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD232" s="1"/>
+      <c r="AE232" s="1"/>
+      <c r="AF232" s="1"/>
+      <c r="AG232" s="1"/>
+    </row>
+    <row r="233" spans="1:33" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="3"/>
       <c r="C233" s="1"/>
@@ -8877,10 +10173,10 @@
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
@@ -8899,8 +10195,12 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
       <c r="AC233" s="1"/>
-    </row>
-    <row r="234" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD233" s="1"/>
+      <c r="AE233" s="1"/>
+      <c r="AF233" s="1"/>
+      <c r="AG233" s="1"/>
+    </row>
+    <row r="234" spans="1:33" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="3"/>
       <c r="C234" s="1"/>
@@ -8908,10 +10208,10 @@
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
@@ -8930,8 +10230,12 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
       <c r="AC234" s="1"/>
-    </row>
-    <row r="235" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD234" s="1"/>
+      <c r="AE234" s="1"/>
+      <c r="AF234" s="1"/>
+      <c r="AG234" s="1"/>
+    </row>
+    <row r="235" spans="1:33" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="3"/>
       <c r="C235" s="1"/>
@@ -8939,10 +10243,10 @@
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
@@ -8961,8 +10265,12 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
       <c r="AC235" s="1"/>
-    </row>
-    <row r="236" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD235" s="1"/>
+      <c r="AE235" s="1"/>
+      <c r="AF235" s="1"/>
+      <c r="AG235" s="1"/>
+    </row>
+    <row r="236" spans="1:33" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="3"/>
       <c r="C236" s="1"/>
@@ -8970,10 +10278,10 @@
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
@@ -8992,8 +10300,12 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
       <c r="AC236" s="1"/>
-    </row>
-    <row r="237" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD236" s="1"/>
+      <c r="AE236" s="1"/>
+      <c r="AF236" s="1"/>
+      <c r="AG236" s="1"/>
+    </row>
+    <row r="237" spans="1:33" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="3"/>
       <c r="C237" s="1"/>
@@ -9001,10 +10313,10 @@
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
@@ -9023,8 +10335,12 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
       <c r="AC237" s="1"/>
-    </row>
-    <row r="238" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+      <c r="AG237" s="1"/>
+    </row>
+    <row r="238" spans="1:33" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="3"/>
       <c r="C238" s="1"/>
@@ -9032,10 +10348,10 @@
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -9054,8 +10370,12 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
       <c r="AC238" s="1"/>
-    </row>
-    <row r="239" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AD238" s="1"/>
+      <c r="AE238" s="1"/>
+      <c r="AF238" s="1"/>
+      <c r="AG238" s="1"/>
+    </row>
+    <row r="239" spans="1:33" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="3"/>
       <c r="C239" s="1"/>
@@ -9063,10 +10383,10 @@
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+      <c r="K239" s="3"/>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
@@ -9085,24 +10405,130 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
-    </row>
-    <row r="240" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+      <c r="AD239" s="1"/>
+      <c r="AE239" s="1"/>
+      <c r="AF239" s="1"/>
+      <c r="AG239" s="1"/>
+    </row>
+    <row r="240" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A240" s="1"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="X240" s="1"/>
+      <c r="Y240" s="1"/>
+      <c r="Z240" s="1"/>
+      <c r="AA240" s="1"/>
+      <c r="AB240" s="1"/>
+      <c r="AC240" s="1"/>
+      <c r="AD240" s="1"/>
+      <c r="AE240" s="1"/>
+      <c r="AF240" s="1"/>
+      <c r="AG240" s="1"/>
+    </row>
+    <row r="241" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A241" s="1"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="X241" s="1"/>
+      <c r="Y241" s="1"/>
+      <c r="Z241" s="1"/>
+      <c r="AA241" s="1"/>
+      <c r="AB241" s="1"/>
+      <c r="AC241" s="1"/>
+      <c r="AD241" s="1"/>
+      <c r="AE241" s="1"/>
+      <c r="AF241" s="1"/>
+      <c r="AG241" s="1"/>
+    </row>
+    <row r="242" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A242" s="1"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
+      <c r="AE242" s="1"/>
+      <c r="AF242" s="1"/>
+      <c r="AG242" s="1"/>
+    </row>
+    <row r="243" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="244" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="246" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="247" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="248" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="249" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="250" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="251" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="252" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="253" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="254" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="255" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="256" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -9847,12 +11273,31 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A5:L30"/>
-  <mergeCells count="3">
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B21:C21"/>
+  <autoFilter ref="A7:P33">
+    <filterColumn colId="7" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="8" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="9" hiddenButton="1" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="15">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="K9:K33"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="H29:J33"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/요구사항 정의서_프로젝트2.xlsx
+++ b/요구사항 정의서_프로젝트2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddn\OneDrive\바탕 화면\TripMate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_7683E9E4EE86CD3987B6A04FA528A72E55D815E2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E18967E-4A28-4D8B-A452-FF8334C81E2E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="151">
   <si>
     <t>HT</t>
   </si>
@@ -621,7 +627,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -743,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -960,15 +966,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1088,11 +1085,73 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1214,65 +1273,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,7 +1297,25 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,7 +1340,50 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,11 +1600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1542,17 +1613,16 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
     <col min="4" max="4" width="87.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
     <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" customHeight="1">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
@@ -1589,22 +1659,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="63"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1624,22 +1694,22 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" customHeight="1">
+    <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1696,10 +1766,10 @@
     </row>
     <row r="5" spans="1:33" ht="50.25" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="60">
+      <c r="B5" s="45">
         <v>43860</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="46" t="s">
         <v>147</v>
       </c>
       <c r="D5" s="1"/>
@@ -1769,13 +1839,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="74" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1784,29 +1854,29 @@
       <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="49" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="52" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1828,32 +1898,32 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="56">
+      <c r="F8" s="53"/>
+      <c r="G8" s="44">
         <v>43854</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="44">
         <v>43858</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="44">
         <v>43859</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="44">
         <v>43860</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="44">
         <v>43861</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1876,10 +1946,10 @@
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1893,7 +1963,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="54" t="s">
         <v>146</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1954,7 +2024,7 @@
         <v>149</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="58"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="15" t="s">
         <v>142</v>
       </c>
@@ -2013,7 +2083,7 @@
         <v>149</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="58"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="15" t="s">
         <v>142</v>
       </c>
@@ -2070,7 +2140,7 @@
         <v>149</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="58"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="15" t="s">
         <v>142</v>
       </c>
@@ -2125,7 +2195,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="58"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="15" t="s">
         <v>142</v>
       </c>
@@ -2176,9 +2246,9 @@
         <v>141</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="66"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="58"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="15" t="s">
         <v>142</v>
       </c>
@@ -2228,14 +2298,14 @@
       <c r="G15" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="65" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="58"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="15" t="s">
         <v>142</v>
       </c>
@@ -2285,14 +2355,14 @@
       <c r="G16" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="65" t="s">
+      <c r="I16" s="51"/>
+      <c r="J16" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="58"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="15" t="s">
         <v>142</v>
       </c>
@@ -2340,14 +2410,14 @@
       <c r="G17" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="65" t="s">
+      <c r="I17" s="51"/>
+      <c r="J17" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="58"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="15" t="s">
         <v>142</v>
       </c>
@@ -2396,9 +2466,9 @@
         <v>141</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="67"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="58"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="15" t="s">
         <v>142</v>
       </c>
@@ -2449,7 +2519,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="58"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="15"/>
       <c r="M19" s="12"/>
       <c r="N19" s="22">
@@ -2498,7 +2568,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="58"/>
+      <c r="K20" s="55"/>
       <c r="L20" s="15" t="s">
         <v>142</v>
       </c>
@@ -2549,7 +2619,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="58"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="15" t="s">
         <v>142</v>
       </c>
@@ -2598,7 +2668,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="58"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="15" t="s">
         <v>142</v>
       </c>
@@ -2651,7 +2721,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="58"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="15" t="s">
         <v>144</v>
       </c>
@@ -2685,10 +2755,10 @@
     </row>
     <row r="24" spans="1:33" ht="36">
       <c r="A24" s="17"/>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="32" t="s">
         <v>89</v>
       </c>
@@ -2702,7 +2772,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="58"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="15" t="s">
         <v>142</v>
       </c>
@@ -2754,8 +2824,10 @@
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="58"/>
+      <c r="J25" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25" s="55"/>
       <c r="L25" s="15" t="s">
         <v>142</v>
       </c>
@@ -2809,8 +2881,10 @@
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="58"/>
+      <c r="J26" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="55"/>
       <c r="L26" s="15" t="s">
         <v>142</v>
       </c>
@@ -2860,8 +2934,10 @@
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="58"/>
+      <c r="J27" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="55"/>
       <c r="L27" s="15" t="s">
         <v>142</v>
       </c>
@@ -2922,7 +2998,7 @@
       <c r="J28" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="58"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="15" t="s">
         <v>142</v>
       </c>
@@ -2972,10 +3048,10 @@
       <c r="G29" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="58"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="15" t="s">
         <v>142</v>
       </c>
@@ -3023,10 +3099,10 @@
       <c r="G30" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="58"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="15" t="s">
         <v>142</v>
       </c>
@@ -3074,10 +3150,10 @@
       <c r="G31" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="58"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="15" t="s">
         <v>142</v>
       </c>
@@ -3125,10 +3201,10 @@
       <c r="G32" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="58"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="15" t="s">
         <v>142</v>
       </c>
@@ -3176,10 +3252,10 @@
       <c r="G33" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="59"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="56"/>
       <c r="L33" s="15" t="s">
         <v>142</v>
       </c>
@@ -11277,12 +11353,17 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P33">
+  <autoFilter ref="A7:P33" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="K9:K33"/>
     <mergeCell ref="B2:O3"/>
@@ -11290,11 +11371,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
@@ -11306,7 +11382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/요구사항 정의서_프로젝트2.xlsx
+++ b/요구사항 정의서_프로젝트2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
   <si>
     <t>HT</t>
   </si>
@@ -615,6 +615,10 @@
   </si>
   <si>
     <t>스타일 작업 완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 - 구현완료 완료</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1214,22 +1218,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,12 +1261,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,31 +1270,12 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,6 +1301,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,7 +1537,7 @@
   <dimension ref="A1:AG1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1589,22 +1593,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="63"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1626,20 +1630,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1696,10 +1700,10 @@
     </row>
     <row r="5" spans="1:33" ht="50.25" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="60">
+      <c r="B5" s="45">
         <v>43860</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="46" t="s">
         <v>147</v>
       </c>
       <c r="D5" s="1"/>
@@ -1769,13 +1773,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1784,29 +1788,29 @@
       <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="49" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="52" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1828,32 +1832,32 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="48"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="56">
+      <c r="F8" s="53"/>
+      <c r="G8" s="44">
         <v>43854</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="44">
         <v>43858</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="44">
         <v>43859</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="44">
         <v>43860</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="44">
         <v>43861</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1876,10 +1880,10 @@
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1890,10 +1894,12 @@
       <c r="G9" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="58" t="s">
         <v>146</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1954,7 +1960,7 @@
         <v>149</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="58"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="15" t="s">
         <v>142</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>149</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="15" t="s">
         <v>142</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>149</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="58"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="15" t="s">
         <v>142</v>
       </c>
@@ -2125,7 +2131,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="58"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="15" t="s">
         <v>142</v>
       </c>
@@ -2176,9 +2182,9 @@
         <v>141</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="66"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="58"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="15" t="s">
         <v>142</v>
       </c>
@@ -2228,14 +2234,14 @@
       <c r="G15" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="65" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="15" t="s">
         <v>142</v>
       </c>
@@ -2285,14 +2291,14 @@
       <c r="G16" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="65" t="s">
+      <c r="I16" s="51"/>
+      <c r="J16" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="15" t="s">
         <v>142</v>
       </c>
@@ -2340,14 +2346,14 @@
       <c r="G17" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="65" t="s">
+      <c r="I17" s="51"/>
+      <c r="J17" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="15" t="s">
         <v>142</v>
       </c>
@@ -2396,9 +2402,9 @@
         <v>141</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="67"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="15" t="s">
         <v>142</v>
       </c>
@@ -2449,7 +2455,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="58"/>
+      <c r="K19" s="59"/>
       <c r="L19" s="15"/>
       <c r="M19" s="12"/>
       <c r="N19" s="22">
@@ -2498,7 +2504,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="58"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="15" t="s">
         <v>142</v>
       </c>
@@ -2549,7 +2555,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="58"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="15" t="s">
         <v>142</v>
       </c>
@@ -2598,7 +2604,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="58"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="15" t="s">
         <v>142</v>
       </c>
@@ -2651,7 +2657,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="15" t="s">
         <v>144</v>
       </c>
@@ -2685,10 +2691,10 @@
     </row>
     <row r="24" spans="1:33" ht="36">
       <c r="A24" s="17"/>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="32" t="s">
         <v>89</v>
       </c>
@@ -2702,7 +2708,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="58"/>
+      <c r="K24" s="59"/>
       <c r="L24" s="15" t="s">
         <v>142</v>
       </c>
@@ -2755,7 +2761,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="58"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="15" t="s">
         <v>142</v>
       </c>
@@ -2810,7 +2816,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="58"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="15" t="s">
         <v>142</v>
       </c>
@@ -2861,7 +2867,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="58"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="15" t="s">
         <v>142</v>
       </c>
@@ -2922,7 +2928,7 @@
       <c r="J28" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="58"/>
+      <c r="K28" s="59"/>
       <c r="L28" s="15" t="s">
         <v>142</v>
       </c>
@@ -2972,10 +2978,10 @@
       <c r="G29" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="58"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="59"/>
       <c r="L29" s="15" t="s">
         <v>142</v>
       </c>
@@ -3023,10 +3029,10 @@
       <c r="G30" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="58"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="59"/>
       <c r="L30" s="15" t="s">
         <v>142</v>
       </c>
@@ -3074,10 +3080,10 @@
       <c r="G31" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="58"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="59"/>
       <c r="L31" s="15" t="s">
         <v>142</v>
       </c>
@@ -3125,10 +3131,10 @@
       <c r="G32" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="58"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="59"/>
       <c r="L32" s="15" t="s">
         <v>142</v>
       </c>
@@ -3176,10 +3182,10 @@
       <c r="G33" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="59"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="60"/>
       <c r="L33" s="15" t="s">
         <v>142</v>
       </c>
@@ -11290,14 +11296,14 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/요구사항 정의서_프로젝트2.xlsx
+++ b/요구사항 정의서_프로젝트2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="153">
   <si>
     <t>HT</t>
   </si>
@@ -233,12 +233,6 @@
   </si>
   <si>
     <t>HT – M - 011</t>
-  </si>
-  <si>
-    <t>최근 매칭 메이트 확인</t>
-  </si>
-  <si>
-    <t>게시글, 댓글 제목 밑 내용을 최대 2줄까지 노출, 클릭시 해당 페이지로 이동</t>
   </si>
   <si>
     <t>여행정보검색</t>
@@ -466,10 +460,6 @@
   </si>
   <si>
     <t>형준</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 위치 날씨 메인 화면에 구현</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -618,7 +608,22 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>앱 - 구현완료 완료</t>
+    <t>앱 - 구현 완료</t>
+  </si>
+  <si>
+    <t>날씨 빼고 구현</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 내 구현 완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 화면 구현완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 위치 날씨 메인 화면에 구현(해결)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1239,26 +1244,11 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,6 +1307,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1534,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1003"/>
+  <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1593,22 +1595,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1630,20 +1632,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1704,7 +1706,7 @@
         <v>43860</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
@@ -1773,13 +1775,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="75" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1788,29 +1790,29 @@
       <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="52" t="s">
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="51" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1832,12 +1834,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="43"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="53"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="44">
         <v>43854</v>
       </c>
@@ -1853,11 +1855,11 @@
       <c r="K8" s="44">
         <v>43861</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1880,33 +1882,35 @@
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="14"/>
+        <v>149</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="58" t="s">
-        <v>146</v>
+      <c r="K9" s="53" t="s">
+        <v>143</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="N9" s="15">
         <v>1</v>
@@ -1948,24 +1952,24 @@
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="59"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N10" s="22">
         <v>2</v>
@@ -2007,21 +2011,21 @@
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="59"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M11" s="39"/>
       <c r="N11" s="22">
@@ -2064,21 +2068,21 @@
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="59"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="22">
@@ -2123,20 +2127,20 @@
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="59"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N13" s="22">
         <v>1</v>
@@ -2176,17 +2180,17 @@
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="49"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="59"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="22">
@@ -2229,24 +2233,24 @@
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="51"/>
+        <v>145</v>
+      </c>
+      <c r="I15" s="50"/>
       <c r="J15" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="59"/>
+        <v>146</v>
+      </c>
+      <c r="K15" s="54"/>
       <c r="L15" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N15" s="22">
         <v>2</v>
@@ -2286,21 +2290,21 @@
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="51"/>
+        <v>145</v>
+      </c>
+      <c r="I16" s="50"/>
       <c r="J16" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="59"/>
+        <v>146</v>
+      </c>
+      <c r="K16" s="54"/>
       <c r="L16" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="22">
@@ -2341,21 +2345,21 @@
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="51"/>
+        <v>145</v>
+      </c>
+      <c r="I17" s="50"/>
       <c r="J17" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K17" s="59"/>
+        <v>146</v>
+      </c>
+      <c r="K17" s="54"/>
       <c r="L17" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="22">
@@ -2387,33 +2391,43 @@
     </row>
     <row r="18" spans="1:33" ht="18.75" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="26" t="s">
         <v>66</v>
       </c>
+      <c r="C18" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="D18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="F18" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="59"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="22">
         <v>2</v>
       </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="O18" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2432,40 +2446,40 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="18.75" customHeight="1">
+    <row r="19" spans="1:33" ht="96">
       <c r="A19" s="17"/>
-      <c r="B19" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>132</v>
+      <c r="B19" s="17"/>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="12"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>135</v>
+      </c>
       <c r="N19" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2485,41 +2499,33 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="96">
+    <row r="20" spans="1:33" ht="18.75" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="42" t="s">
-        <v>131</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="59"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>138</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M20" s="12"/>
       <c r="N20" s="22">
-        <v>1</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>77</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2538,9 +2544,11 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="18.75" customHeight="1">
+    <row r="21" spans="1:33" ht="84">
       <c r="A21" s="17"/>
-      <c r="B21" s="25"/>
+      <c r="B21" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="12" t="s">
         <v>78</v>
       </c>
@@ -2548,23 +2556,31 @@
         <v>79</v>
       </c>
       <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="41" t="s">
+        <v>127</v>
+      </c>
       <c r="G21" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="59"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="N21" s="22">
-        <v>3</v>
-      </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2583,42 +2599,38 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="84">
+    <row r="22" spans="1:33" ht="18.75" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>81</v>
+      <c r="B22" s="17"/>
+      <c r="C22" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="59"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M22" s="12"/>
       <c r="N22" s="22">
-        <v>1</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2638,38 +2650,40 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="18.75" customHeight="1">
+    <row r="23" spans="1:33" ht="36">
       <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>85</v>
+      <c r="B23" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="59"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="N23" s="22">
-        <v>2</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2689,40 +2703,40 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="36">
+    <row r="24" spans="1:33" ht="18.75" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="41" t="s">
-        <v>129</v>
+      <c r="B24" s="33"/>
+      <c r="C24" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="59"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="N24" s="22">
-        <v>1</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>91</v>
+        <v>2</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2744,38 +2758,38 @@
     </row>
     <row r="25" spans="1:33" ht="18.75" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="B25" s="33" t="s">
         <v>93</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="59"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>127</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M25" s="12"/>
       <c r="N25" s="22">
         <v>2</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2796,39 +2810,37 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>97</v>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="59"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="22">
         <v>2</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2849,38 +2861,48 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="C27" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="59"/>
+        <v>138</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="54"/>
       <c r="L27" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M27" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="N27" s="22">
-        <v>2</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>103</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" s="15"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2900,48 +2922,38 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>104</v>
-      </c>
+      <c r="A28" s="17"/>
       <c r="B28" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21" t="s">
         <v>128</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K28" s="59"/>
+        <v>138</v>
+      </c>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>134</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M28" s="12"/>
       <c r="N28" s="22">
         <v>3</v>
       </c>
-      <c r="O28" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P28" s="15"/>
+      <c r="O28" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="22"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2960,39 +2972,39 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="18.75" customHeight="1">
+    <row r="29" spans="1:33" ht="45" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="59"/>
+        <v>138</v>
+      </c>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="22">
         <v>3</v>
       </c>
-      <c r="O29" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="P29" s="22"/>
+      <c r="O29" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" s="12"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3011,37 +3023,37 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="45" customHeight="1">
+    <row r="30" spans="1:33" ht="33.75" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="22" t="s">
-        <v>113</v>
+      <c r="B30" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>117</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="59"/>
+        <v>138</v>
+      </c>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="54"/>
       <c r="L30" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="22">
         <v>3</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="1"/>
@@ -3062,37 +3074,37 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="33.75" customHeight="1">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="21" t="s">
-        <v>117</v>
+      <c r="B31" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="59"/>
+        <v>138</v>
+      </c>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="54"/>
       <c r="L31" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="22">
         <v>3</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="1"/>
@@ -3113,38 +3125,36 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A32" s="17"/>
+    <row r="32" spans="1:33" ht="18.75" customHeight="1">
+      <c r="A32" s="25"/>
       <c r="B32" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="59"/>
+        <v>138</v>
+      </c>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="22">
         <v>3</v>
       </c>
-      <c r="O32" s="35" t="s">
-        <v>124</v>
-      </c>
+      <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -3164,37 +3174,23 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="22">
-        <v>3</v>
-      </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
+    <row r="33" spans="1:33" ht="19.5" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -3213,7 +3209,7 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="19.5" customHeight="1">
+    <row r="34" spans="1:33" ht="15.75" customHeight="1">
       <c r="A34" s="37"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
@@ -3253,13 +3249,6 @@
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
@@ -3312,15 +3301,23 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="F37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -3351,7 +3348,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="1"/>
@@ -3379,7 +3376,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="F39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3387,7 +3384,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="1"/>
@@ -3414,6 +3411,7 @@
     <row r="40" spans="1:33" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="1" t="s">
         <v>129</v>
       </c>
@@ -3423,7 +3421,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="1"/>
@@ -3452,7 +3450,7 @@
       <c r="B41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="1" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3460,7 +3458,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="1"/>
@@ -3487,19 +3485,17 @@
     <row r="42" spans="1:33" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -10486,41 +10482,7 @@
       <c r="AF241" s="1"/>
       <c r="AG241" s="1"/>
     </row>
-    <row r="242" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A242" s="1"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
-      <c r="Q242" s="1"/>
-      <c r="R242" s="1"/>
-      <c r="S242" s="1"/>
-      <c r="T242" s="1"/>
-      <c r="U242" s="1"/>
-      <c r="V242" s="1"/>
-      <c r="W242" s="1"/>
-      <c r="X242" s="1"/>
-      <c r="Y242" s="1"/>
-      <c r="Z242" s="1"/>
-      <c r="AA242" s="1"/>
-      <c r="AB242" s="1"/>
-      <c r="AC242" s="1"/>
-      <c r="AD242" s="1"/>
-      <c r="AE242" s="1"/>
-      <c r="AF242" s="1"/>
-      <c r="AG242" s="1"/>
-    </row>
+    <row r="242" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="243" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="244" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="245" spans="1:33" ht="15.75" customHeight="1"/>
@@ -11281,29 +11243,28 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P33">
+  <autoFilter ref="A7:P32">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="K9:K33"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="H29:J33"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="K9:K32"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="H28:J32"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/요구사항 정의서_프로젝트2.xlsx
+++ b/요구사항 정의서_프로젝트2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jr\Desktop\TripMate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
   <si>
     <t>HT</t>
   </si>
@@ -619,6 +624,15 @@
   </si>
   <si>
     <t>앱 - 구현완료 완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지 스타일 
+조정 및 구현 완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 - 구현 완료</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1249,18 +1263,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1318,6 +1320,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1593,22 +1610,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1630,20 +1647,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1776,10 +1793,10 @@
       <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1791,13 +1808,13 @@
       <c r="F7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="52" t="s">
         <v>18</v>
       </c>
@@ -1833,8 +1850,8 @@
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
       <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="43"/>
       <c r="E8" s="10"/>
       <c r="F8" s="53"/>
@@ -1880,10 +1897,10 @@
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1899,7 +1916,7 @@
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="54" t="s">
         <v>146</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1960,7 +1977,7 @@
         <v>149</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="59"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="15" t="s">
         <v>142</v>
       </c>
@@ -2019,7 +2036,7 @@
         <v>149</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="59"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="15" t="s">
         <v>142</v>
       </c>
@@ -2076,7 +2093,7 @@
         <v>149</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="59"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="15" t="s">
         <v>142</v>
       </c>
@@ -2131,7 +2148,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="59"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="15" t="s">
         <v>142</v>
       </c>
@@ -2184,7 +2201,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="49"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="59"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="15" t="s">
         <v>142</v>
       </c>
@@ -2241,7 +2258,7 @@
       <c r="J15" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="59"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="15" t="s">
         <v>142</v>
       </c>
@@ -2298,7 +2315,7 @@
       <c r="J16" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="59"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="15" t="s">
         <v>142</v>
       </c>
@@ -2353,7 +2370,7 @@
       <c r="J17" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="59"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="15" t="s">
         <v>142</v>
       </c>
@@ -2404,7 +2421,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="50"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="59"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="15" t="s">
         <v>142</v>
       </c>
@@ -2455,7 +2472,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="59"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="15"/>
       <c r="M19" s="12"/>
       <c r="N19" s="22">
@@ -2504,7 +2521,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="59"/>
+      <c r="K20" s="55"/>
       <c r="L20" s="15" t="s">
         <v>142</v>
       </c>
@@ -2555,7 +2572,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="59"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="15" t="s">
         <v>142</v>
       </c>
@@ -2602,9 +2619,13 @@
         <v>141</v>
       </c>
       <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="59"/>
+      <c r="I22" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="55"/>
       <c r="L22" s="15" t="s">
         <v>142</v>
       </c>
@@ -2657,7 +2678,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="59"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="15" t="s">
         <v>144</v>
       </c>
@@ -2691,10 +2712,10 @@
     </row>
     <row r="24" spans="1:33" ht="36">
       <c r="A24" s="17"/>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="32" t="s">
         <v>89</v>
       </c>
@@ -2708,7 +2729,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="59"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="15" t="s">
         <v>142</v>
       </c>
@@ -2761,7 +2782,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="59"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="15" t="s">
         <v>142</v>
       </c>
@@ -2816,7 +2837,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="59"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="15" t="s">
         <v>142</v>
       </c>
@@ -2867,7 +2888,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="59"/>
+      <c r="K27" s="55"/>
       <c r="L27" s="15" t="s">
         <v>142</v>
       </c>
@@ -2928,7 +2949,7 @@
       <c r="J28" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="59"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="15" t="s">
         <v>142</v>
       </c>
@@ -2978,10 +2999,10 @@
       <c r="G29" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="15" t="s">
         <v>142</v>
       </c>
@@ -3029,10 +3050,10 @@
       <c r="G30" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="59"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="15" t="s">
         <v>142</v>
       </c>
@@ -3080,10 +3101,10 @@
       <c r="G31" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="59"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="15" t="s">
         <v>142</v>
       </c>
@@ -3131,10 +3152,10 @@
       <c r="G32" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="59"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="15" t="s">
         <v>142</v>
       </c>
@@ -3182,10 +3203,10 @@
       <c r="G33" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="60"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="56"/>
       <c r="L33" s="15" t="s">
         <v>142</v>
       </c>
@@ -11289,6 +11310,11 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="K9:K33"/>
     <mergeCell ref="B2:O3"/>
@@ -11299,11 +11325,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/요구사항 정의서_프로젝트2.xlsx
+++ b/요구사항 정의서_프로젝트2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\트립메이트\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="153">
   <si>
     <t>HT</t>
   </si>
@@ -1251,6 +1256,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,18 +1324,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1539,7 +1544,7 @@
   <dimension ref="A1:AG1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K32"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1595,22 +1600,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1632,20 +1637,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1778,10 +1783,10 @@
       <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1793,13 +1798,13 @@
       <c r="F7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
       <c r="L7" s="51" t="s">
         <v>18</v>
       </c>
@@ -1835,8 +1840,8 @@
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
       <c r="A8" s="52"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="76"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="43"/>
       <c r="E8" s="10"/>
       <c r="F8" s="52"/>
@@ -1882,10 +1887,10 @@
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1903,7 +1908,7 @@
         <v>148</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="57" t="s">
         <v>143</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1964,7 +1969,7 @@
         <v>146</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="54"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="15" t="s">
         <v>139</v>
       </c>
@@ -2023,7 +2028,7 @@
         <v>146</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="54"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="15" t="s">
         <v>139</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>146</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="54"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="15" t="s">
         <v>139</v>
       </c>
@@ -2135,7 +2140,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="54"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="15" t="s">
         <v>139</v>
       </c>
@@ -2188,7 +2193,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="49"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="54"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="15" t="s">
         <v>139</v>
       </c>
@@ -2245,7 +2250,7 @@
       <c r="J15" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="54"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="15" t="s">
         <v>139</v>
       </c>
@@ -2302,7 +2307,7 @@
       <c r="J16" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="54"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="15" t="s">
         <v>139</v>
       </c>
@@ -2357,7 +2362,7 @@
       <c r="J17" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="54"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="15" t="s">
         <v>139</v>
       </c>
@@ -2414,7 +2419,7 @@
         <v>150</v>
       </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="54"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="15" t="s">
         <v>151</v>
       </c>
@@ -2465,7 +2470,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="54"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="15" t="s">
         <v>139</v>
       </c>
@@ -2516,7 +2521,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="54"/>
+      <c r="K20" s="58"/>
       <c r="L20" s="15" t="s">
         <v>139</v>
       </c>
@@ -2565,7 +2570,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="54"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="15" t="s">
         <v>139</v>
       </c>
@@ -2618,7 +2623,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="54"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="15" t="s">
         <v>141</v>
       </c>
@@ -2652,10 +2657,10 @@
     </row>
     <row r="23" spans="1:33" ht="36">
       <c r="A23" s="17"/>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="32" t="s">
         <v>87</v>
       </c>
@@ -2669,7 +2674,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="54"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="15" t="s">
         <v>139</v>
       </c>
@@ -2721,8 +2726,10 @@
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="54"/>
+      <c r="J24" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="58"/>
       <c r="L24" s="15" t="s">
         <v>139</v>
       </c>
@@ -2776,8 +2783,10 @@
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="54"/>
+      <c r="J25" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="58"/>
       <c r="L25" s="15" t="s">
         <v>139</v>
       </c>
@@ -2827,8 +2836,10 @@
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="54"/>
+      <c r="J26" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="58"/>
       <c r="L26" s="15" t="s">
         <v>139</v>
       </c>
@@ -2889,7 +2900,7 @@
       <c r="J27" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="K27" s="54"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="15" t="s">
         <v>139</v>
       </c>
@@ -2939,10 +2950,10 @@
       <c r="G28" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="54"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="15" t="s">
         <v>139</v>
       </c>
@@ -2990,10 +3001,10 @@
       <c r="G29" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="54"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="15" t="s">
         <v>139</v>
       </c>
@@ -3041,10 +3052,10 @@
       <c r="G30" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="54"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="58"/>
       <c r="L30" s="15" t="s">
         <v>139</v>
       </c>
@@ -3092,10 +3103,10 @@
       <c r="G31" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="54"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="15" t="s">
         <v>139</v>
       </c>
@@ -3143,10 +3154,10 @@
       <c r="G32" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="55"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="59"/>
       <c r="L32" s="15" t="s">
         <v>139</v>
       </c>
@@ -11250,11 +11261,6 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="K9:K32"/>
     <mergeCell ref="B2:O3"/>
@@ -11265,6 +11271,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/요구사항 정의서_프로젝트2.xlsx
+++ b/요구사항 정의서_프로젝트2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddn\OneDrive\바탕 화면\TripMate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TripMate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_7683E9E4EE86CD3987B6A04FA528A72E55D815E2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E18967E-4A28-4D8B-A452-FF8334C81E2E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
   <si>
     <t>HT</t>
   </si>
@@ -623,11 +622,15 @@
     <t>스타일 작업 완료</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>앱-layout 설계완료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -1151,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1291,9 +1294,6 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1304,6 +1304,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,6 +1323,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,36 +1384,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,11 +1600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1659,22 +1659,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1696,20 +1696,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1839,13 +1839,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1854,29 +1854,29 @@
       <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="52" t="s">
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="51" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1898,12 +1898,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="43"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="53"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="44">
         <v>43854</v>
       </c>
@@ -1919,11 +1919,11 @@
       <c r="K8" s="44">
         <v>43861</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1946,10 +1946,10 @@
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="57" t="s">
         <v>146</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -2024,7 +2024,7 @@
         <v>149</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="15" t="s">
         <v>142</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>149</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="15" t="s">
         <v>142</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>149</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="55"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="15" t="s">
         <v>142</v>
       </c>
@@ -2193,9 +2193,11 @@
         <v>141</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="I13" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="15" t="s">
         <v>142</v>
       </c>
@@ -2246,9 +2248,11 @@
         <v>141</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="49"/>
+      <c r="I14" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="J14" s="14"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="15" t="s">
         <v>142</v>
       </c>
@@ -2301,11 +2305,11 @@
       <c r="H15" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="15" t="s">
         <v>142</v>
       </c>
@@ -2358,11 +2362,11 @@
       <c r="H16" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="51"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="15" t="s">
         <v>142</v>
       </c>
@@ -2413,11 +2417,11 @@
       <c r="H17" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="55"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="15" t="s">
         <v>142</v>
       </c>
@@ -2466,9 +2470,9 @@
         <v>141</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="15" t="s">
         <v>142</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="15"/>
       <c r="M19" s="12"/>
       <c r="N19" s="22">
@@ -2566,9 +2570,13 @@
         <v>141</v>
       </c>
       <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="55"/>
+      <c r="I20" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="58"/>
       <c r="L20" s="15" t="s">
         <v>142</v>
       </c>
@@ -2619,7 +2627,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="55"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="15" t="s">
         <v>142</v>
       </c>
@@ -2668,7 +2676,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="15" t="s">
         <v>142</v>
       </c>
@@ -2721,7 +2729,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="15" t="s">
         <v>144</v>
       </c>
@@ -2755,10 +2763,10 @@
     </row>
     <row r="24" spans="1:33" ht="36">
       <c r="A24" s="17"/>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="32" t="s">
         <v>89</v>
       </c>
@@ -2772,7 +2780,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="15" t="s">
         <v>142</v>
       </c>
@@ -2827,7 +2835,7 @@
       <c r="J25" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="55"/>
+      <c r="K25" s="58"/>
       <c r="L25" s="15" t="s">
         <v>142</v>
       </c>
@@ -2884,7 +2892,7 @@
       <c r="J26" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K26" s="55"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="15" t="s">
         <v>142</v>
       </c>
@@ -2937,7 +2945,7 @@
       <c r="J27" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K27" s="55"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="15" t="s">
         <v>142</v>
       </c>
@@ -2998,7 +3006,7 @@
       <c r="J28" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="55"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="15" t="s">
         <v>142</v>
       </c>
@@ -3048,10 +3056,10 @@
       <c r="G29" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="55"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="15" t="s">
         <v>142</v>
       </c>
@@ -3099,10 +3107,10 @@
       <c r="G30" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="55"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="58"/>
       <c r="L30" s="15" t="s">
         <v>142</v>
       </c>
@@ -3150,10 +3158,10 @@
       <c r="G31" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="55"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="15" t="s">
         <v>142</v>
       </c>
@@ -3201,10 +3209,10 @@
       <c r="G32" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="55"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="58"/>
       <c r="L32" s="15" t="s">
         <v>142</v>
       </c>
@@ -3252,10 +3260,10 @@
       <c r="G33" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="56"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="59"/>
       <c r="L33" s="15" t="s">
         <v>142</v>
       </c>
@@ -11353,17 +11361,12 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P33" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:P33">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="K9:K33"/>
     <mergeCell ref="B2:O3"/>
@@ -11374,6 +11377,11 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11382,7 +11390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
